--- a/Literature List.xlsx
+++ b/Literature List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="954">
   <si>
     <t xml:space="preserve">Authors</t>
   </si>
@@ -646,6 +646,18 @@
     <t xml:space="preserve">10.1016/j.renene.2016.05.006</t>
   </si>
   <si>
+    <t xml:space="preserve">Parra, D., Swierczynski, M., Stroe, D. I., Norman, S. A., Abdon, A., Worlitschek, J., ... &amp; Bauer, C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An interdisciplinary review of energy storage for communities: Challenges and perspectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renewable and Sustainable Energy Reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.rser.2017.05.003</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carli, R., &amp; Dotoli, M.</t>
   </si>
   <si>
@@ -658,18 +670,6 @@
     <t xml:space="preserve">10.1016/j.ifacol.2017.08.1544</t>
   </si>
   <si>
-    <t xml:space="preserve">Gutiérrez, T. N., Rege, S., Marvuglia, A., &amp; Benetto, E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable farming behaviours: An agent based modelling and LCA perspective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent-Based Modeling of Sustainable Behaviors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007/978-3-319-46331-5_9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liu, T., Zhu, Y., Zhu, H., Yu, J., Yang, Y., &amp; Ye, F.</t>
   </si>
   <si>
@@ -796,6 +796,18 @@
     <t xml:space="preserve">10.1109/GlobalSIP.2017.8309134</t>
   </si>
   <si>
+    <t xml:space="preserve">Sarker, M. R., Pandžić, H., Sun, K., &amp; Ortega-Vazquez, M. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal operation of aggregated electric vehicle charging stations coupled with energy storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IET Generation, Transmission &amp; Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1049/iet-gtd.2017.0134</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruiz-Cortés, M., Romero-Cadaval, E., Roncero-Clemente, C., Barrero-González, F., &amp; González-Romera, E.</t>
   </si>
   <si>
@@ -1291,9 +1303,6 @@
     <t xml:space="preserve">Non-cooperative and cooperative optimisation of battery energy storage system for energy management in multi-microgrid</t>
   </si>
   <si>
-    <t xml:space="preserve">IET Generation, Transmission &amp; Distribution</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1049/iet-gtd.2017.0401</t>
   </si>
   <si>
@@ -2215,10 +2224,7 @@
     <t xml:space="preserve">Online Control and Near-Optimal Algorithm for Energy Storage Sharing in Smart Grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 IEEE International Conference on Communications (ICC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1109/icc.2019.8761408</t>
+    <t xml:space="preserve">10.1109/TSG.2019.2957426</t>
   </si>
   <si>
     <t xml:space="preserve">Shared Electrical Energy Storage Service Model and Strategy for Apartment-Type Factory Buildings</t>
@@ -2723,6 +2729,159 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/j.renene.2020.04.090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machlev, R., Zargari, N., Chowdhury, N. R., Belikov, J., &amp; Levron, Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A review of optimal control methods for energy storage systems-energy trading, energy balancing and electric vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.est.2020.101787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun, L., Qiu, J., Han, X., Yin, X., &amp; Dong, Z.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per-use-share rental strategy of distributed BESS in joint energy and frequency control ancillary services markets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.apenergy.2020.115589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdeltawab, H. M., &amp; Mohamed, Y. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributed Battery Energy Storage Co-Operation for Renewable Energy Sources Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3390/en13205517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang, S., Tan, Z., Liu, Z., Lin, H., Ju, L., Zhou, F., &amp; Li, J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A multi-objective stochastic optimization model for electricity retailers with energy storage system considering uncertainty and demand response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Cleaner Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.jclepro.2020.124017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiong, L., Yang, S., Li, P., Huang, S., Wang, C., &amp; Wang, J. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete specified time consensus control of aggregated energy storage for load frequency regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijepes.2020.106224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu, M., Xiao, F., &amp; Wang, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighborhood-level coordination and negotiation techniques for managing demand-side flexibility in residential microgrids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.rser.2020.110248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delarestaghi, J. M., Arefi, A., Ledwich, G., &amp; Borghetti, A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distribution network planning model considering neighborhood energy trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.epsr.2020.106894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li, S., Zhu, J., Chen, Z., &amp; Luo, T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double-layer energy management system based on energy sharing cloud for virtual residential microgrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.apenergy.2020.116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esmat, A., de Vos, M., Ghiassi-Farrokhfal, Y., Palensky, P., &amp; Epema, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A novel decentralized platform for peer-to-peer energy trading market with blockchain technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.apenergy.2020.116123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tushar, W., Yuen, C., Saha, T. K., Morstyn, T., Chapman, A. C., Alam, M. J. E., ... &amp; Poor, H. V. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peer-to-peer energy systems for connected communities: A review of recent advances and emerging challenges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.apenergy.2020.116131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernandez, E., Hossain, M. J., Mahmud, K., Nizami, M. S. H., &amp; Kashif, M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bi-level optimization-based community energy management system for optimal energy sharing and trading among peers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.jclepro.2020.123254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liu, J., Chen, X., Xiang, Y., Huo, D., &amp; Liu, J.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal planning and investment benefit analysis of shared energy storage for electricity retailers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijepes.2020.106561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McPherson, M., McBennett, B., Sigler, D., &amp; Denholm, P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts of storage dispatch on revenue in electricity markets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.est.2020.101573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distributed real-time control algorithm for energy storage sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.enbuild.2020.110478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiang, A., Yuan, H., &amp; Li, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A two-stage optimization approach on the decisions for prosumers and consumers within a community in the Peer-to-peer energy sharing trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.ijepes.2020.106527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun, L., Qiu, J., Han, X., Yin, X., &amp; Dong, Z. Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity and energy sharing platform with hybrid energy storage system: An example of hospitality industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.apenergy.2020.115897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walker, A., &amp; Kwon, S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis on impact of shared energy storage in residential community: Individual versus shared energy storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.apenergy.2020.116172</t>
   </si>
 </sst>
 </file>
@@ -2775,12 +2934,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2817,7 +2982,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2842,6 +3007,26 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2859,6 +3044,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2867,15 +3112,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH264"/>
+  <dimension ref="A1:AMJ282"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="53.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="29.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.16"/>
@@ -2884,24 +3129,24 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2911,14 +3156,14 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="3" t="n">
         <v>2011</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2928,10 +3173,10 @@
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="3" t="n">
         <v>2011</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2945,27 +3190,27 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="8" t="n">
         <v>2012</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2979,10 +3224,10 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2996,10 +3241,10 @@
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3013,15 +3258,15 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3030,10 +3275,10 @@
       <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3047,10 +3292,10 @@
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3064,10 +3309,10 @@
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3081,44 +3326,44 @@
       <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="8" t="n">
         <v>2013</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="8" t="n">
         <v>2013</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3132,10 +3377,10 @@
       <c r="C15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3149,10 +3394,10 @@
       <c r="C16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3166,29 +3411,30 @@
       <c r="C17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="8" t="n">
         <v>2014</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -3200,10 +3446,10 @@
       <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3217,10 +3463,10 @@
       <c r="C20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3234,10 +3480,10 @@
       <c r="C21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3251,10 +3497,10 @@
       <c r="C22" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3268,10 +3514,10 @@
       <c r="C23" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3285,10 +3531,10 @@
       <c r="C24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3302,32 +3548,32 @@
       <c r="C25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="8" t="n">
         <v>2015</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3336,10 +3582,10 @@
       <c r="C27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3353,27 +3599,27 @@
       <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="8" t="n">
         <v>2015</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3387,10 +3633,10 @@
       <c r="C30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="3" t="n">
         <v>2015</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3404,10 +3650,10 @@
       <c r="C31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3421,10 +3667,10 @@
       <c r="C32" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3438,49 +3684,49 @@
       <c r="C33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="8" t="n">
         <v>2016</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="8" t="n">
         <v>2016</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3489,10 +3735,10 @@
       <c r="C36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3506,10 +3752,10 @@
       <c r="C37" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3523,10 +3769,10 @@
       <c r="C38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3540,10 +3786,10 @@
       <c r="C39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3557,10 +3803,10 @@
       <c r="C40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3574,15 +3820,15 @@
       <c r="C41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3591,44 +3837,44 @@
       <c r="C42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="8" t="n">
         <v>2016</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="8" t="n">
         <v>2016</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="8" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3642,10 +3888,10 @@
       <c r="C45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3659,10 +3905,10 @@
       <c r="C46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3676,10 +3922,10 @@
       <c r="C47" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3693,27 +3939,27 @@
       <c r="C48" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="8" t="n">
         <v>2016</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3727,27 +3973,27 @@
       <c r="C50" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="3" t="n">
         <v>2016</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3761,46 +4007,48 @@
       <c r="C52" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="F52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="8" t="s">
         <v>196</v>
       </c>
+      <c r="F54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -3812,29 +4060,32 @@
       <c r="C55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+    <row r="56" s="3" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="9" t="s">
         <v>203</v>
       </c>
+      <c r="F56" s="0"/>
+      <c r="AMI56" s="10"/>
+      <c r="AMJ56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
@@ -3846,14 +4097,14 @@
       <c r="C57" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>208</v>
       </c>
@@ -3863,12 +4114,13 @@
       <c r="C58" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="F58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
@@ -3880,10 +4132,10 @@
       <c r="C59" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3897,12 +4149,13 @@
       <c r="C60" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="F60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
@@ -3914,10 +4167,10 @@
       <c r="C61" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3931,27 +4184,28 @@
       <c r="C62" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>226</v>
       </c>
+      <c r="F62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D63" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="8" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3965,12 +4219,13 @@
       <c r="C64" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>234</v>
       </c>
+      <c r="F64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
@@ -3982,10 +4237,10 @@
       <c r="C65" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3999,12 +4254,13 @@
       <c r="C66" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D66" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="F66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
@@ -4016,10 +4272,10 @@
       <c r="C67" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4033,10 +4289,10 @@
       <c r="C68" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4050,12 +4306,13 @@
       <c r="C69" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>253</v>
       </c>
+      <c r="F69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
@@ -4067,31 +4324,32 @@
       <c r="C70" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D71" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>262</v>
       </c>
@@ -4101,10 +4359,10 @@
       <c r="C72" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="D72" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4118,12 +4376,13 @@
       <c r="C73" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="D73" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="F73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
@@ -4135,10 +4394,10 @@
       <c r="C74" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4152,14 +4411,15 @@
       <c r="C75" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>278</v>
       </c>
@@ -4167,99 +4427,102 @@
         <v>279</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="D77" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D77" s="1" t="n">
+      <c r="E77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D78" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>287</v>
+      <c r="E78" s="8" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="E79" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D80" s="1" t="n">
+      <c r="D80" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>293</v>
+      <c r="E80" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D81" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="D81" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
         <v>297</v>
       </c>
+      <c r="F81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
@@ -4269,118 +4532,121 @@
         <v>299</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="1" t="n">
+      <c r="D83" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D83" s="1" t="n">
+      <c r="E83" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>307</v>
+      <c r="E84" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D86" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="E86" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="D87" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="F87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="D88" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>320</v>
       </c>
@@ -4388,33 +4654,34 @@
         <v>321</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="1" t="n">
+      <c r="D90" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>327</v>
       </c>
@@ -4424,14 +4691,14 @@
       <c r="C91" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>331</v>
       </c>
@@ -4441,10 +4708,10 @@
       <c r="C92" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D92" s="1" t="n">
+      <c r="D92" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4458,10 +4725,10 @@
       <c r="C93" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D93" s="1" t="n">
+      <c r="D93" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4475,10 +4742,10 @@
       <c r="C94" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D94" s="1" t="n">
+      <c r="D94" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4490,114 +4757,114 @@
         <v>344</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D95" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="D95" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>345</v>
+      <c r="E95" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="A96" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D96" s="1" t="n">
+      <c r="B96" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D96" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>348</v>
+      <c r="E96" s="8" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D97" s="1" t="n">
+      <c r="D98" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>354</v>
+      <c r="E98" s="8" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="D99" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>357</v>
+      <c r="E99" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D100" s="1" t="n">
+      <c r="D101" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="8" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4609,118 +4876,118 @@
         <v>366</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="D102" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>367</v>
+      <c r="E102" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D103" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="D103" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>370</v>
+      <c r="E103" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B104" s="4" t="s">
+      <c r="A104" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D104" s="1" t="n">
+      <c r="D105" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" s="1" t="n">
+      <c r="E105" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D106" s="1" t="n">
+      <c r="E106" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D107" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>383</v>
+      <c r="E107" s="8" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D108" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D108" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>388</v>
       </c>
@@ -4730,44 +4997,44 @@
       <c r="C109" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D109" s="1" t="n">
+      <c r="D109" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
+    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="1" t="n">
+      <c r="C110" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D110" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>394</v>
+      <c r="E110" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D111" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D111" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="3" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4779,69 +5046,69 @@
         <v>400</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D112" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="D112" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>401</v>
+      <c r="E112" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D113" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D113" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>404</v>
+      <c r="E113" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D114" s="1" t="n">
+      <c r="A114" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>406</v>
+      <c r="E114" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D115" s="1" t="n">
+      <c r="A115" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D115" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>411</v>
@@ -4849,14 +5116,14 @@
       <c r="C116" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D116" s="1" t="n">
+      <c r="D116" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>414</v>
       </c>
@@ -4866,10 +5133,10 @@
       <c r="C117" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D117" s="1" t="n">
+      <c r="D117" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="3" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4881,182 +5148,182 @@
         <v>419</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D118" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="D118" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>420</v>
+      <c r="E118" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D119" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="D119" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120" s="8" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="D120" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="D121" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>433</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D122" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="D122" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>434</v>
+      <c r="E122" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="D123" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D124" s="1" t="n">
+    </row>
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D125" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C125" s="5" t="s">
+      <c r="E125" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="D125" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="D126" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="D126" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="D127" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D127" s="1" t="n">
+    </row>
+    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D128" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D128" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="3" t="s">
         <v>457</v>
       </c>
     </row>
@@ -5070,10 +5337,10 @@
       <c r="C129" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D129" s="1" t="n">
+      <c r="D129" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="3" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5085,67 +5352,67 @@
         <v>462</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D130" s="1" t="n">
+      <c r="D131" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C131" s="5" t="s">
+      <c r="E131" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D131" s="1" t="n">
+      <c r="D132" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C132" s="5" t="s">
+      <c r="E132" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="D132" s="1" t="n">
+    </row>
+    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D133" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D133" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>473</v>
       </c>
@@ -5153,50 +5420,50 @@
         <v>474</v>
       </c>
       <c r="C134" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D134" s="1" t="n">
+    </row>
+    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D135" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C135" s="5" t="s">
+      <c r="E135" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="D135" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D136" s="1" t="n">
+      <c r="D136" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>484</v>
       </c>
@@ -5204,16 +5471,16 @@
         <v>485</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D137" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="D137" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>487</v>
       </c>
@@ -5221,29 +5488,29 @@
         <v>488</v>
       </c>
       <c r="C138" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D138" s="1" t="n">
+    </row>
+    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D139" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D139" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="8" t="s">
         <v>493</v>
       </c>
     </row>
@@ -5255,24 +5522,24 @@
         <v>495</v>
       </c>
       <c r="C140" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="D140" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D141" s="1" t="n">
         <v>2018</v>
@@ -5291,95 +5558,95 @@
       <c r="C142" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D142" s="1" t="n">
+      <c r="D142" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" s="3" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B143" s="4" t="s">
+      <c r="A143" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="B143" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D143" s="1" t="n">
+      <c r="D143" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>505</v>
+      <c r="E143" s="8" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D144" s="1" t="n">
+      <c r="D144" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E144" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D145" s="1" t="n">
+      <c r="D145" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D146" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D146" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D147" s="1" t="n">
+      <c r="D147" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" s="3" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5391,63 +5658,63 @@
         <v>517</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D148" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="D148" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C149" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D149" s="1" t="n">
+    </row>
+    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D150" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C150" s="5" t="s">
+      <c r="E150" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D150" s="1" t="n">
+    </row>
+    <row r="151" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D151" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D151" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="3" t="s">
         <v>530</v>
       </c>
     </row>
@@ -5459,16 +5726,16 @@
         <v>532</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D152" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E152" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D152" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>534</v>
       </c>
@@ -5476,63 +5743,63 @@
         <v>535</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D153" s="1" t="n">
+    </row>
+    <row r="154" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D154" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C154" s="5" t="s">
+      <c r="E154" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="D154" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="C155" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="D155" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="D155" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="C156" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D156" s="1" t="n">
+      <c r="D156" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" s="3" t="s">
         <v>548</v>
       </c>
     </row>
@@ -5544,12 +5811,12 @@
         <v>550</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D157" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="D157" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="3" t="s">
         <v>551</v>
       </c>
     </row>
@@ -5563,10 +5830,10 @@
       <c r="C158" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D158" s="1" t="n">
+      <c r="D158" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="3" t="s">
         <v>554</v>
       </c>
     </row>
@@ -5578,12 +5845,12 @@
         <v>556</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D159" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D159" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="3" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5595,41 +5862,41 @@
         <v>559</v>
       </c>
       <c r="C160" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="D160" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="C161" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="D161" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="D161" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="C162" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>2019</v>
@@ -5638,7 +5905,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>569</v>
       </c>
@@ -5648,1029 +5915,12 @@
       <c r="C163" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D163" s="1" t="n">
+      <c r="D163" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-      <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
-      <c r="L163" s="0"/>
-      <c r="M163" s="0"/>
-      <c r="N163" s="0"/>
-      <c r="O163" s="0"/>
-      <c r="P163" s="0"/>
-      <c r="Q163" s="0"/>
-      <c r="R163" s="0"/>
-      <c r="S163" s="0"/>
-      <c r="T163" s="0"/>
-      <c r="U163" s="0"/>
-      <c r="V163" s="0"/>
-      <c r="W163" s="0"/>
-      <c r="X163" s="0"/>
-      <c r="Y163" s="0"/>
-      <c r="Z163" s="0"/>
-      <c r="AA163" s="0"/>
-      <c r="AB163" s="0"/>
-      <c r="AC163" s="0"/>
-      <c r="AD163" s="0"/>
-      <c r="AE163" s="0"/>
-      <c r="AF163" s="0"/>
-      <c r="AG163" s="0"/>
-      <c r="AH163" s="0"/>
-      <c r="AI163" s="0"/>
-      <c r="AJ163" s="0"/>
-      <c r="AK163" s="0"/>
-      <c r="AL163" s="0"/>
-      <c r="AM163" s="0"/>
-      <c r="AN163" s="0"/>
-      <c r="AO163" s="0"/>
-      <c r="AP163" s="0"/>
-      <c r="AQ163" s="0"/>
-      <c r="AR163" s="0"/>
-      <c r="AS163" s="0"/>
-      <c r="AT163" s="0"/>
-      <c r="AU163" s="0"/>
-      <c r="AV163" s="0"/>
-      <c r="AW163" s="0"/>
-      <c r="AX163" s="0"/>
-      <c r="AY163" s="0"/>
-      <c r="AZ163" s="0"/>
-      <c r="BA163" s="0"/>
-      <c r="BB163" s="0"/>
-      <c r="BC163" s="0"/>
-      <c r="BD163" s="0"/>
-      <c r="BE163" s="0"/>
-      <c r="BF163" s="0"/>
-      <c r="BG163" s="0"/>
-      <c r="BH163" s="0"/>
-      <c r="BI163" s="0"/>
-      <c r="BJ163" s="0"/>
-      <c r="BK163" s="0"/>
-      <c r="BL163" s="0"/>
-      <c r="BM163" s="0"/>
-      <c r="BN163" s="0"/>
-      <c r="BO163" s="0"/>
-      <c r="BP163" s="0"/>
-      <c r="BQ163" s="0"/>
-      <c r="BR163" s="0"/>
-      <c r="BS163" s="0"/>
-      <c r="BT163" s="0"/>
-      <c r="BU163" s="0"/>
-      <c r="BV163" s="0"/>
-      <c r="BW163" s="0"/>
-      <c r="BX163" s="0"/>
-      <c r="BY163" s="0"/>
-      <c r="BZ163" s="0"/>
-      <c r="CA163" s="0"/>
-      <c r="CB163" s="0"/>
-      <c r="CC163" s="0"/>
-      <c r="CD163" s="0"/>
-      <c r="CE163" s="0"/>
-      <c r="CF163" s="0"/>
-      <c r="CG163" s="0"/>
-      <c r="CH163" s="0"/>
-      <c r="CI163" s="0"/>
-      <c r="CJ163" s="0"/>
-      <c r="CK163" s="0"/>
-      <c r="CL163" s="0"/>
-      <c r="CM163" s="0"/>
-      <c r="CN163" s="0"/>
-      <c r="CO163" s="0"/>
-      <c r="CP163" s="0"/>
-      <c r="CQ163" s="0"/>
-      <c r="CR163" s="0"/>
-      <c r="CS163" s="0"/>
-      <c r="CT163" s="0"/>
-      <c r="CU163" s="0"/>
-      <c r="CV163" s="0"/>
-      <c r="CW163" s="0"/>
-      <c r="CX163" s="0"/>
-      <c r="CY163" s="0"/>
-      <c r="CZ163" s="0"/>
-      <c r="DA163" s="0"/>
-      <c r="DB163" s="0"/>
-      <c r="DC163" s="0"/>
-      <c r="DD163" s="0"/>
-      <c r="DE163" s="0"/>
-      <c r="DF163" s="0"/>
-      <c r="DG163" s="0"/>
-      <c r="DH163" s="0"/>
-      <c r="DI163" s="0"/>
-      <c r="DJ163" s="0"/>
-      <c r="DK163" s="0"/>
-      <c r="DL163" s="0"/>
-      <c r="DM163" s="0"/>
-      <c r="DN163" s="0"/>
-      <c r="DO163" s="0"/>
-      <c r="DP163" s="0"/>
-      <c r="DQ163" s="0"/>
-      <c r="DR163" s="0"/>
-      <c r="DS163" s="0"/>
-      <c r="DT163" s="0"/>
-      <c r="DU163" s="0"/>
-      <c r="DV163" s="0"/>
-      <c r="DW163" s="0"/>
-      <c r="DX163" s="0"/>
-      <c r="DY163" s="0"/>
-      <c r="DZ163" s="0"/>
-      <c r="EA163" s="0"/>
-      <c r="EB163" s="0"/>
-      <c r="EC163" s="0"/>
-      <c r="ED163" s="0"/>
-      <c r="EE163" s="0"/>
-      <c r="EF163" s="0"/>
-      <c r="EG163" s="0"/>
-      <c r="EH163" s="0"/>
-      <c r="EI163" s="0"/>
-      <c r="EJ163" s="0"/>
-      <c r="EK163" s="0"/>
-      <c r="EL163" s="0"/>
-      <c r="EM163" s="0"/>
-      <c r="EN163" s="0"/>
-      <c r="EO163" s="0"/>
-      <c r="EP163" s="0"/>
-      <c r="EQ163" s="0"/>
-      <c r="ER163" s="0"/>
-      <c r="ES163" s="0"/>
-      <c r="ET163" s="0"/>
-      <c r="EU163" s="0"/>
-      <c r="EV163" s="0"/>
-      <c r="EW163" s="0"/>
-      <c r="EX163" s="0"/>
-      <c r="EY163" s="0"/>
-      <c r="EZ163" s="0"/>
-      <c r="FA163" s="0"/>
-      <c r="FB163" s="0"/>
-      <c r="FC163" s="0"/>
-      <c r="FD163" s="0"/>
-      <c r="FE163" s="0"/>
-      <c r="FF163" s="0"/>
-      <c r="FG163" s="0"/>
-      <c r="FH163" s="0"/>
-      <c r="FI163" s="0"/>
-      <c r="FJ163" s="0"/>
-      <c r="FK163" s="0"/>
-      <c r="FL163" s="0"/>
-      <c r="FM163" s="0"/>
-      <c r="FN163" s="0"/>
-      <c r="FO163" s="0"/>
-      <c r="FP163" s="0"/>
-      <c r="FQ163" s="0"/>
-      <c r="FR163" s="0"/>
-      <c r="FS163" s="0"/>
-      <c r="FT163" s="0"/>
-      <c r="FU163" s="0"/>
-      <c r="FV163" s="0"/>
-      <c r="FW163" s="0"/>
-      <c r="FX163" s="0"/>
-      <c r="FY163" s="0"/>
-      <c r="FZ163" s="0"/>
-      <c r="GA163" s="0"/>
-      <c r="GB163" s="0"/>
-      <c r="GC163" s="0"/>
-      <c r="GD163" s="0"/>
-      <c r="GE163" s="0"/>
-      <c r="GF163" s="0"/>
-      <c r="GG163" s="0"/>
-      <c r="GH163" s="0"/>
-      <c r="GI163" s="0"/>
-      <c r="GJ163" s="0"/>
-      <c r="GK163" s="0"/>
-      <c r="GL163" s="0"/>
-      <c r="GM163" s="0"/>
-      <c r="GN163" s="0"/>
-      <c r="GO163" s="0"/>
-      <c r="GP163" s="0"/>
-      <c r="GQ163" s="0"/>
-      <c r="GR163" s="0"/>
-      <c r="GS163" s="0"/>
-      <c r="GT163" s="0"/>
-      <c r="GU163" s="0"/>
-      <c r="GV163" s="0"/>
-      <c r="GW163" s="0"/>
-      <c r="GX163" s="0"/>
-      <c r="GY163" s="0"/>
-      <c r="GZ163" s="0"/>
-      <c r="HA163" s="0"/>
-      <c r="HB163" s="0"/>
-      <c r="HC163" s="0"/>
-      <c r="HD163" s="0"/>
-      <c r="HE163" s="0"/>
-      <c r="HF163" s="0"/>
-      <c r="HG163" s="0"/>
-      <c r="HH163" s="0"/>
-      <c r="HI163" s="0"/>
-      <c r="HJ163" s="0"/>
-      <c r="HK163" s="0"/>
-      <c r="HL163" s="0"/>
-      <c r="HM163" s="0"/>
-      <c r="HN163" s="0"/>
-      <c r="HO163" s="0"/>
-      <c r="HP163" s="0"/>
-      <c r="HQ163" s="0"/>
-      <c r="HR163" s="0"/>
-      <c r="HS163" s="0"/>
-      <c r="HT163" s="0"/>
-      <c r="HU163" s="0"/>
-      <c r="HV163" s="0"/>
-      <c r="HW163" s="0"/>
-      <c r="HX163" s="0"/>
-      <c r="HY163" s="0"/>
-      <c r="HZ163" s="0"/>
-      <c r="IA163" s="0"/>
-      <c r="IB163" s="0"/>
-      <c r="IC163" s="0"/>
-      <c r="ID163" s="0"/>
-      <c r="IE163" s="0"/>
-      <c r="IF163" s="0"/>
-      <c r="IG163" s="0"/>
-      <c r="IH163" s="0"/>
-      <c r="II163" s="0"/>
-      <c r="IJ163" s="0"/>
-      <c r="IK163" s="0"/>
-      <c r="IL163" s="0"/>
-      <c r="IM163" s="0"/>
-      <c r="IN163" s="0"/>
-      <c r="IO163" s="0"/>
-      <c r="IP163" s="0"/>
-      <c r="IQ163" s="0"/>
-      <c r="IR163" s="0"/>
-      <c r="IS163" s="0"/>
-      <c r="IT163" s="0"/>
-      <c r="IU163" s="0"/>
-      <c r="IV163" s="0"/>
-      <c r="IW163" s="0"/>
-      <c r="IX163" s="0"/>
-      <c r="IY163" s="0"/>
-      <c r="IZ163" s="0"/>
-      <c r="JA163" s="0"/>
-      <c r="JB163" s="0"/>
-      <c r="JC163" s="0"/>
-      <c r="JD163" s="0"/>
-      <c r="JE163" s="0"/>
-      <c r="JF163" s="0"/>
-      <c r="JG163" s="0"/>
-      <c r="JH163" s="0"/>
-      <c r="JI163" s="0"/>
-      <c r="JJ163" s="0"/>
-      <c r="JK163" s="0"/>
-      <c r="JL163" s="0"/>
-      <c r="JM163" s="0"/>
-      <c r="JN163" s="0"/>
-      <c r="JO163" s="0"/>
-      <c r="JP163" s="0"/>
-      <c r="JQ163" s="0"/>
-      <c r="JR163" s="0"/>
-      <c r="JS163" s="0"/>
-      <c r="JT163" s="0"/>
-      <c r="JU163" s="0"/>
-      <c r="JV163" s="0"/>
-      <c r="JW163" s="0"/>
-      <c r="JX163" s="0"/>
-      <c r="JY163" s="0"/>
-      <c r="JZ163" s="0"/>
-      <c r="KA163" s="0"/>
-      <c r="KB163" s="0"/>
-      <c r="KC163" s="0"/>
-      <c r="KD163" s="0"/>
-      <c r="KE163" s="0"/>
-      <c r="KF163" s="0"/>
-      <c r="KG163" s="0"/>
-      <c r="KH163" s="0"/>
-      <c r="KI163" s="0"/>
-      <c r="KJ163" s="0"/>
-      <c r="KK163" s="0"/>
-      <c r="KL163" s="0"/>
-      <c r="KM163" s="0"/>
-      <c r="KN163" s="0"/>
-      <c r="KO163" s="0"/>
-      <c r="KP163" s="0"/>
-      <c r="KQ163" s="0"/>
-      <c r="KR163" s="0"/>
-      <c r="KS163" s="0"/>
-      <c r="KT163" s="0"/>
-      <c r="KU163" s="0"/>
-      <c r="KV163" s="0"/>
-      <c r="KW163" s="0"/>
-      <c r="KX163" s="0"/>
-      <c r="KY163" s="0"/>
-      <c r="KZ163" s="0"/>
-      <c r="LA163" s="0"/>
-      <c r="LB163" s="0"/>
-      <c r="LC163" s="0"/>
-      <c r="LD163" s="0"/>
-      <c r="LE163" s="0"/>
-      <c r="LF163" s="0"/>
-      <c r="LG163" s="0"/>
-      <c r="LH163" s="0"/>
-      <c r="LI163" s="0"/>
-      <c r="LJ163" s="0"/>
-      <c r="LK163" s="0"/>
-      <c r="LL163" s="0"/>
-      <c r="LM163" s="0"/>
-      <c r="LN163" s="0"/>
-      <c r="LO163" s="0"/>
-      <c r="LP163" s="0"/>
-      <c r="LQ163" s="0"/>
-      <c r="LR163" s="0"/>
-      <c r="LS163" s="0"/>
-      <c r="LT163" s="0"/>
-      <c r="LU163" s="0"/>
-      <c r="LV163" s="0"/>
-      <c r="LW163" s="0"/>
-      <c r="LX163" s="0"/>
-      <c r="LY163" s="0"/>
-      <c r="LZ163" s="0"/>
-      <c r="MA163" s="0"/>
-      <c r="MB163" s="0"/>
-      <c r="MC163" s="0"/>
-      <c r="MD163" s="0"/>
-      <c r="ME163" s="0"/>
-      <c r="MF163" s="0"/>
-      <c r="MG163" s="0"/>
-      <c r="MH163" s="0"/>
-      <c r="MI163" s="0"/>
-      <c r="MJ163" s="0"/>
-      <c r="MK163" s="0"/>
-      <c r="ML163" s="0"/>
-      <c r="MM163" s="0"/>
-      <c r="MN163" s="0"/>
-      <c r="MO163" s="0"/>
-      <c r="MP163" s="0"/>
-      <c r="MQ163" s="0"/>
-      <c r="MR163" s="0"/>
-      <c r="MS163" s="0"/>
-      <c r="MT163" s="0"/>
-      <c r="MU163" s="0"/>
-      <c r="MV163" s="0"/>
-      <c r="MW163" s="0"/>
-      <c r="MX163" s="0"/>
-      <c r="MY163" s="0"/>
-      <c r="MZ163" s="0"/>
-      <c r="NA163" s="0"/>
-      <c r="NB163" s="0"/>
-      <c r="NC163" s="0"/>
-      <c r="ND163" s="0"/>
-      <c r="NE163" s="0"/>
-      <c r="NF163" s="0"/>
-      <c r="NG163" s="0"/>
-      <c r="NH163" s="0"/>
-      <c r="NI163" s="0"/>
-      <c r="NJ163" s="0"/>
-      <c r="NK163" s="0"/>
-      <c r="NL163" s="0"/>
-      <c r="NM163" s="0"/>
-      <c r="NN163" s="0"/>
-      <c r="NO163" s="0"/>
-      <c r="NP163" s="0"/>
-      <c r="NQ163" s="0"/>
-      <c r="NR163" s="0"/>
-      <c r="NS163" s="0"/>
-      <c r="NT163" s="0"/>
-      <c r="NU163" s="0"/>
-      <c r="NV163" s="0"/>
-      <c r="NW163" s="0"/>
-      <c r="NX163" s="0"/>
-      <c r="NY163" s="0"/>
-      <c r="NZ163" s="0"/>
-      <c r="OA163" s="0"/>
-      <c r="OB163" s="0"/>
-      <c r="OC163" s="0"/>
-      <c r="OD163" s="0"/>
-      <c r="OE163" s="0"/>
-      <c r="OF163" s="0"/>
-      <c r="OG163" s="0"/>
-      <c r="OH163" s="0"/>
-      <c r="OI163" s="0"/>
-      <c r="OJ163" s="0"/>
-      <c r="OK163" s="0"/>
-      <c r="OL163" s="0"/>
-      <c r="OM163" s="0"/>
-      <c r="ON163" s="0"/>
-      <c r="OO163" s="0"/>
-      <c r="OP163" s="0"/>
-      <c r="OQ163" s="0"/>
-      <c r="OR163" s="0"/>
-      <c r="OS163" s="0"/>
-      <c r="OT163" s="0"/>
-      <c r="OU163" s="0"/>
-      <c r="OV163" s="0"/>
-      <c r="OW163" s="0"/>
-      <c r="OX163" s="0"/>
-      <c r="OY163" s="0"/>
-      <c r="OZ163" s="0"/>
-      <c r="PA163" s="0"/>
-      <c r="PB163" s="0"/>
-      <c r="PC163" s="0"/>
-      <c r="PD163" s="0"/>
-      <c r="PE163" s="0"/>
-      <c r="PF163" s="0"/>
-      <c r="PG163" s="0"/>
-      <c r="PH163" s="0"/>
-      <c r="PI163" s="0"/>
-      <c r="PJ163" s="0"/>
-      <c r="PK163" s="0"/>
-      <c r="PL163" s="0"/>
-      <c r="PM163" s="0"/>
-      <c r="PN163" s="0"/>
-      <c r="PO163" s="0"/>
-      <c r="PP163" s="0"/>
-      <c r="PQ163" s="0"/>
-      <c r="PR163" s="0"/>
-      <c r="PS163" s="0"/>
-      <c r="PT163" s="0"/>
-      <c r="PU163" s="0"/>
-      <c r="PV163" s="0"/>
-      <c r="PW163" s="0"/>
-      <c r="PX163" s="0"/>
-      <c r="PY163" s="0"/>
-      <c r="PZ163" s="0"/>
-      <c r="QA163" s="0"/>
-      <c r="QB163" s="0"/>
-      <c r="QC163" s="0"/>
-      <c r="QD163" s="0"/>
-      <c r="QE163" s="0"/>
-      <c r="QF163" s="0"/>
-      <c r="QG163" s="0"/>
-      <c r="QH163" s="0"/>
-      <c r="QI163" s="0"/>
-      <c r="QJ163" s="0"/>
-      <c r="QK163" s="0"/>
-      <c r="QL163" s="0"/>
-      <c r="QM163" s="0"/>
-      <c r="QN163" s="0"/>
-      <c r="QO163" s="0"/>
-      <c r="QP163" s="0"/>
-      <c r="QQ163" s="0"/>
-      <c r="QR163" s="0"/>
-      <c r="QS163" s="0"/>
-      <c r="QT163" s="0"/>
-      <c r="QU163" s="0"/>
-      <c r="QV163" s="0"/>
-      <c r="QW163" s="0"/>
-      <c r="QX163" s="0"/>
-      <c r="QY163" s="0"/>
-      <c r="QZ163" s="0"/>
-      <c r="RA163" s="0"/>
-      <c r="RB163" s="0"/>
-      <c r="RC163" s="0"/>
-      <c r="RD163" s="0"/>
-      <c r="RE163" s="0"/>
-      <c r="RF163" s="0"/>
-      <c r="RG163" s="0"/>
-      <c r="RH163" s="0"/>
-      <c r="RI163" s="0"/>
-      <c r="RJ163" s="0"/>
-      <c r="RK163" s="0"/>
-      <c r="RL163" s="0"/>
-      <c r="RM163" s="0"/>
-      <c r="RN163" s="0"/>
-      <c r="RO163" s="0"/>
-      <c r="RP163" s="0"/>
-      <c r="RQ163" s="0"/>
-      <c r="RR163" s="0"/>
-      <c r="RS163" s="0"/>
-      <c r="RT163" s="0"/>
-      <c r="RU163" s="0"/>
-      <c r="RV163" s="0"/>
-      <c r="RW163" s="0"/>
-      <c r="RX163" s="0"/>
-      <c r="RY163" s="0"/>
-      <c r="RZ163" s="0"/>
-      <c r="SA163" s="0"/>
-      <c r="SB163" s="0"/>
-      <c r="SC163" s="0"/>
-      <c r="SD163" s="0"/>
-      <c r="SE163" s="0"/>
-      <c r="SF163" s="0"/>
-      <c r="SG163" s="0"/>
-      <c r="SH163" s="0"/>
-      <c r="SI163" s="0"/>
-      <c r="SJ163" s="0"/>
-      <c r="SK163" s="0"/>
-      <c r="SL163" s="0"/>
-      <c r="SM163" s="0"/>
-      <c r="SN163" s="0"/>
-      <c r="SO163" s="0"/>
-      <c r="SP163" s="0"/>
-      <c r="SQ163" s="0"/>
-      <c r="SR163" s="0"/>
-      <c r="SS163" s="0"/>
-      <c r="ST163" s="0"/>
-      <c r="SU163" s="0"/>
-      <c r="SV163" s="0"/>
-      <c r="SW163" s="0"/>
-      <c r="SX163" s="0"/>
-      <c r="SY163" s="0"/>
-      <c r="SZ163" s="0"/>
-      <c r="TA163" s="0"/>
-      <c r="TB163" s="0"/>
-      <c r="TC163" s="0"/>
-      <c r="TD163" s="0"/>
-      <c r="TE163" s="0"/>
-      <c r="TF163" s="0"/>
-      <c r="TG163" s="0"/>
-      <c r="TH163" s="0"/>
-      <c r="TI163" s="0"/>
-      <c r="TJ163" s="0"/>
-      <c r="TK163" s="0"/>
-      <c r="TL163" s="0"/>
-      <c r="TM163" s="0"/>
-      <c r="TN163" s="0"/>
-      <c r="TO163" s="0"/>
-      <c r="TP163" s="0"/>
-      <c r="TQ163" s="0"/>
-      <c r="TR163" s="0"/>
-      <c r="TS163" s="0"/>
-      <c r="TT163" s="0"/>
-      <c r="TU163" s="0"/>
-      <c r="TV163" s="0"/>
-      <c r="TW163" s="0"/>
-      <c r="TX163" s="0"/>
-      <c r="TY163" s="0"/>
-      <c r="TZ163" s="0"/>
-      <c r="UA163" s="0"/>
-      <c r="UB163" s="0"/>
-      <c r="UC163" s="0"/>
-      <c r="UD163" s="0"/>
-      <c r="UE163" s="0"/>
-      <c r="UF163" s="0"/>
-      <c r="UG163" s="0"/>
-      <c r="UH163" s="0"/>
-      <c r="UI163" s="0"/>
-      <c r="UJ163" s="0"/>
-      <c r="UK163" s="0"/>
-      <c r="UL163" s="0"/>
-      <c r="UM163" s="0"/>
-      <c r="UN163" s="0"/>
-      <c r="UO163" s="0"/>
-      <c r="UP163" s="0"/>
-      <c r="UQ163" s="0"/>
-      <c r="UR163" s="0"/>
-      <c r="US163" s="0"/>
-      <c r="UT163" s="0"/>
-      <c r="UU163" s="0"/>
-      <c r="UV163" s="0"/>
-      <c r="UW163" s="0"/>
-      <c r="UX163" s="0"/>
-      <c r="UY163" s="0"/>
-      <c r="UZ163" s="0"/>
-      <c r="VA163" s="0"/>
-      <c r="VB163" s="0"/>
-      <c r="VC163" s="0"/>
-      <c r="VD163" s="0"/>
-      <c r="VE163" s="0"/>
-      <c r="VF163" s="0"/>
-      <c r="VG163" s="0"/>
-      <c r="VH163" s="0"/>
-      <c r="VI163" s="0"/>
-      <c r="VJ163" s="0"/>
-      <c r="VK163" s="0"/>
-      <c r="VL163" s="0"/>
-      <c r="VM163" s="0"/>
-      <c r="VN163" s="0"/>
-      <c r="VO163" s="0"/>
-      <c r="VP163" s="0"/>
-      <c r="VQ163" s="0"/>
-      <c r="VR163" s="0"/>
-      <c r="VS163" s="0"/>
-      <c r="VT163" s="0"/>
-      <c r="VU163" s="0"/>
-      <c r="VV163" s="0"/>
-      <c r="VW163" s="0"/>
-      <c r="VX163" s="0"/>
-      <c r="VY163" s="0"/>
-      <c r="VZ163" s="0"/>
-      <c r="WA163" s="0"/>
-      <c r="WB163" s="0"/>
-      <c r="WC163" s="0"/>
-      <c r="WD163" s="0"/>
-      <c r="WE163" s="0"/>
-      <c r="WF163" s="0"/>
-      <c r="WG163" s="0"/>
-      <c r="WH163" s="0"/>
-      <c r="WI163" s="0"/>
-      <c r="WJ163" s="0"/>
-      <c r="WK163" s="0"/>
-      <c r="WL163" s="0"/>
-      <c r="WM163" s="0"/>
-      <c r="WN163" s="0"/>
-      <c r="WO163" s="0"/>
-      <c r="WP163" s="0"/>
-      <c r="WQ163" s="0"/>
-      <c r="WR163" s="0"/>
-      <c r="WS163" s="0"/>
-      <c r="WT163" s="0"/>
-      <c r="WU163" s="0"/>
-      <c r="WV163" s="0"/>
-      <c r="WW163" s="0"/>
-      <c r="WX163" s="0"/>
-      <c r="WY163" s="0"/>
-      <c r="WZ163" s="0"/>
-      <c r="XA163" s="0"/>
-      <c r="XB163" s="0"/>
-      <c r="XC163" s="0"/>
-      <c r="XD163" s="0"/>
-      <c r="XE163" s="0"/>
-      <c r="XF163" s="0"/>
-      <c r="XG163" s="0"/>
-      <c r="XH163" s="0"/>
-      <c r="XI163" s="0"/>
-      <c r="XJ163" s="0"/>
-      <c r="XK163" s="0"/>
-      <c r="XL163" s="0"/>
-      <c r="XM163" s="0"/>
-      <c r="XN163" s="0"/>
-      <c r="XO163" s="0"/>
-      <c r="XP163" s="0"/>
-      <c r="XQ163" s="0"/>
-      <c r="XR163" s="0"/>
-      <c r="XS163" s="0"/>
-      <c r="XT163" s="0"/>
-      <c r="XU163" s="0"/>
-      <c r="XV163" s="0"/>
-      <c r="XW163" s="0"/>
-      <c r="XX163" s="0"/>
-      <c r="XY163" s="0"/>
-      <c r="XZ163" s="0"/>
-      <c r="YA163" s="0"/>
-      <c r="YB163" s="0"/>
-      <c r="YC163" s="0"/>
-      <c r="YD163" s="0"/>
-      <c r="YE163" s="0"/>
-      <c r="YF163" s="0"/>
-      <c r="YG163" s="0"/>
-      <c r="YH163" s="0"/>
-      <c r="YI163" s="0"/>
-      <c r="YJ163" s="0"/>
-      <c r="YK163" s="0"/>
-      <c r="YL163" s="0"/>
-      <c r="YM163" s="0"/>
-      <c r="YN163" s="0"/>
-      <c r="YO163" s="0"/>
-      <c r="YP163" s="0"/>
-      <c r="YQ163" s="0"/>
-      <c r="YR163" s="0"/>
-      <c r="YS163" s="0"/>
-      <c r="YT163" s="0"/>
-      <c r="YU163" s="0"/>
-      <c r="YV163" s="0"/>
-      <c r="YW163" s="0"/>
-      <c r="YX163" s="0"/>
-      <c r="YY163" s="0"/>
-      <c r="YZ163" s="0"/>
-      <c r="ZA163" s="0"/>
-      <c r="ZB163" s="0"/>
-      <c r="ZC163" s="0"/>
-      <c r="ZD163" s="0"/>
-      <c r="ZE163" s="0"/>
-      <c r="ZF163" s="0"/>
-      <c r="ZG163" s="0"/>
-      <c r="ZH163" s="0"/>
-      <c r="ZI163" s="0"/>
-      <c r="ZJ163" s="0"/>
-      <c r="ZK163" s="0"/>
-      <c r="ZL163" s="0"/>
-      <c r="ZM163" s="0"/>
-      <c r="ZN163" s="0"/>
-      <c r="ZO163" s="0"/>
-      <c r="ZP163" s="0"/>
-      <c r="ZQ163" s="0"/>
-      <c r="ZR163" s="0"/>
-      <c r="ZS163" s="0"/>
-      <c r="ZT163" s="0"/>
-      <c r="ZU163" s="0"/>
-      <c r="ZV163" s="0"/>
-      <c r="ZW163" s="0"/>
-      <c r="ZX163" s="0"/>
-      <c r="ZY163" s="0"/>
-      <c r="ZZ163" s="0"/>
-      <c r="AAA163" s="0"/>
-      <c r="AAB163" s="0"/>
-      <c r="AAC163" s="0"/>
-      <c r="AAD163" s="0"/>
-      <c r="AAE163" s="0"/>
-      <c r="AAF163" s="0"/>
-      <c r="AAG163" s="0"/>
-      <c r="AAH163" s="0"/>
-      <c r="AAI163" s="0"/>
-      <c r="AAJ163" s="0"/>
-      <c r="AAK163" s="0"/>
-      <c r="AAL163" s="0"/>
-      <c r="AAM163" s="0"/>
-      <c r="AAN163" s="0"/>
-      <c r="AAO163" s="0"/>
-      <c r="AAP163" s="0"/>
-      <c r="AAQ163" s="0"/>
-      <c r="AAR163" s="0"/>
-      <c r="AAS163" s="0"/>
-      <c r="AAT163" s="0"/>
-      <c r="AAU163" s="0"/>
-      <c r="AAV163" s="0"/>
-      <c r="AAW163" s="0"/>
-      <c r="AAX163" s="0"/>
-      <c r="AAY163" s="0"/>
-      <c r="AAZ163" s="0"/>
-      <c r="ABA163" s="0"/>
-      <c r="ABB163" s="0"/>
-      <c r="ABC163" s="0"/>
-      <c r="ABD163" s="0"/>
-      <c r="ABE163" s="0"/>
-      <c r="ABF163" s="0"/>
-      <c r="ABG163" s="0"/>
-      <c r="ABH163" s="0"/>
-      <c r="ABI163" s="0"/>
-      <c r="ABJ163" s="0"/>
-      <c r="ABK163" s="0"/>
-      <c r="ABL163" s="0"/>
-      <c r="ABM163" s="0"/>
-      <c r="ABN163" s="0"/>
-      <c r="ABO163" s="0"/>
-      <c r="ABP163" s="0"/>
-      <c r="ABQ163" s="0"/>
-      <c r="ABR163" s="0"/>
-      <c r="ABS163" s="0"/>
-      <c r="ABT163" s="0"/>
-      <c r="ABU163" s="0"/>
-      <c r="ABV163" s="0"/>
-      <c r="ABW163" s="0"/>
-      <c r="ABX163" s="0"/>
-      <c r="ABY163" s="0"/>
-      <c r="ABZ163" s="0"/>
-      <c r="ACA163" s="0"/>
-      <c r="ACB163" s="0"/>
-      <c r="ACC163" s="0"/>
-      <c r="ACD163" s="0"/>
-      <c r="ACE163" s="0"/>
-      <c r="ACF163" s="0"/>
-      <c r="ACG163" s="0"/>
-      <c r="ACH163" s="0"/>
-      <c r="ACI163" s="0"/>
-      <c r="ACJ163" s="0"/>
-      <c r="ACK163" s="0"/>
-      <c r="ACL163" s="0"/>
-      <c r="ACM163" s="0"/>
-      <c r="ACN163" s="0"/>
-      <c r="ACO163" s="0"/>
-      <c r="ACP163" s="0"/>
-      <c r="ACQ163" s="0"/>
-      <c r="ACR163" s="0"/>
-      <c r="ACS163" s="0"/>
-      <c r="ACT163" s="0"/>
-      <c r="ACU163" s="0"/>
-      <c r="ACV163" s="0"/>
-      <c r="ACW163" s="0"/>
-      <c r="ACX163" s="0"/>
-      <c r="ACY163" s="0"/>
-      <c r="ACZ163" s="0"/>
-      <c r="ADA163" s="0"/>
-      <c r="ADB163" s="0"/>
-      <c r="ADC163" s="0"/>
-      <c r="ADD163" s="0"/>
-      <c r="ADE163" s="0"/>
-      <c r="ADF163" s="0"/>
-      <c r="ADG163" s="0"/>
-      <c r="ADH163" s="0"/>
-      <c r="ADI163" s="0"/>
-      <c r="ADJ163" s="0"/>
-      <c r="ADK163" s="0"/>
-      <c r="ADL163" s="0"/>
-      <c r="ADM163" s="0"/>
-      <c r="ADN163" s="0"/>
-      <c r="ADO163" s="0"/>
-      <c r="ADP163" s="0"/>
-      <c r="ADQ163" s="0"/>
-      <c r="ADR163" s="0"/>
-      <c r="ADS163" s="0"/>
-      <c r="ADT163" s="0"/>
-      <c r="ADU163" s="0"/>
-      <c r="ADV163" s="0"/>
-      <c r="ADW163" s="0"/>
-      <c r="ADX163" s="0"/>
-      <c r="ADY163" s="0"/>
-      <c r="ADZ163" s="0"/>
-      <c r="AEA163" s="0"/>
-      <c r="AEB163" s="0"/>
-      <c r="AEC163" s="0"/>
-      <c r="AED163" s="0"/>
-      <c r="AEE163" s="0"/>
-      <c r="AEF163" s="0"/>
-      <c r="AEG163" s="0"/>
-      <c r="AEH163" s="0"/>
-      <c r="AEI163" s="0"/>
-      <c r="AEJ163" s="0"/>
-      <c r="AEK163" s="0"/>
-      <c r="AEL163" s="0"/>
-      <c r="AEM163" s="0"/>
-      <c r="AEN163" s="0"/>
-      <c r="AEO163" s="0"/>
-      <c r="AEP163" s="0"/>
-      <c r="AEQ163" s="0"/>
-      <c r="AER163" s="0"/>
-      <c r="AES163" s="0"/>
-      <c r="AET163" s="0"/>
-      <c r="AEU163" s="0"/>
-      <c r="AEV163" s="0"/>
-      <c r="AEW163" s="0"/>
-      <c r="AEX163" s="0"/>
-      <c r="AEY163" s="0"/>
-      <c r="AEZ163" s="0"/>
-      <c r="AFA163" s="0"/>
-      <c r="AFB163" s="0"/>
-      <c r="AFC163" s="0"/>
-      <c r="AFD163" s="0"/>
-      <c r="AFE163" s="0"/>
-      <c r="AFF163" s="0"/>
-      <c r="AFG163" s="0"/>
-      <c r="AFH163" s="0"/>
-      <c r="AFI163" s="0"/>
-      <c r="AFJ163" s="0"/>
-      <c r="AFK163" s="0"/>
-      <c r="AFL163" s="0"/>
-      <c r="AFM163" s="0"/>
-      <c r="AFN163" s="0"/>
-      <c r="AFO163" s="0"/>
-      <c r="AFP163" s="0"/>
-      <c r="AFQ163" s="0"/>
-      <c r="AFR163" s="0"/>
-      <c r="AFS163" s="0"/>
-      <c r="AFT163" s="0"/>
-      <c r="AFU163" s="0"/>
-      <c r="AFV163" s="0"/>
-      <c r="AFW163" s="0"/>
-      <c r="AFX163" s="0"/>
-      <c r="AFY163" s="0"/>
-      <c r="AFZ163" s="0"/>
-      <c r="AGA163" s="0"/>
-      <c r="AGB163" s="0"/>
-      <c r="AGC163" s="0"/>
-      <c r="AGD163" s="0"/>
-      <c r="AGE163" s="0"/>
-      <c r="AGF163" s="0"/>
-      <c r="AGG163" s="0"/>
-      <c r="AGH163" s="0"/>
-      <c r="AGI163" s="0"/>
-      <c r="AGJ163" s="0"/>
-      <c r="AGK163" s="0"/>
-      <c r="AGL163" s="0"/>
-      <c r="AGM163" s="0"/>
-      <c r="AGN163" s="0"/>
-      <c r="AGO163" s="0"/>
-      <c r="AGP163" s="0"/>
-      <c r="AGQ163" s="0"/>
-      <c r="AGR163" s="0"/>
-      <c r="AGS163" s="0"/>
-      <c r="AGT163" s="0"/>
-      <c r="AGU163" s="0"/>
-      <c r="AGV163" s="0"/>
-      <c r="AGW163" s="0"/>
-      <c r="AGX163" s="0"/>
-      <c r="AGY163" s="0"/>
-      <c r="AGZ163" s="0"/>
-      <c r="AHA163" s="0"/>
-      <c r="AHB163" s="0"/>
-      <c r="AHC163" s="0"/>
-      <c r="AHD163" s="0"/>
-      <c r="AHE163" s="0"/>
-      <c r="AHF163" s="0"/>
-      <c r="AHG163" s="0"/>
-      <c r="AHH163" s="0"/>
-      <c r="AHI163" s="0"/>
-      <c r="AHJ163" s="0"/>
-      <c r="AHK163" s="0"/>
-      <c r="AHL163" s="0"/>
-      <c r="AHM163" s="0"/>
-      <c r="AHN163" s="0"/>
-      <c r="AHO163" s="0"/>
-      <c r="AHP163" s="0"/>
-      <c r="AHQ163" s="0"/>
-      <c r="AHR163" s="0"/>
-      <c r="AHS163" s="0"/>
-      <c r="AHT163" s="0"/>
-      <c r="AHU163" s="0"/>
-      <c r="AHV163" s="0"/>
-      <c r="AHW163" s="0"/>
-      <c r="AHX163" s="0"/>
-      <c r="AHY163" s="0"/>
-      <c r="AHZ163" s="0"/>
-      <c r="AIA163" s="0"/>
-      <c r="AIB163" s="0"/>
-      <c r="AIC163" s="0"/>
-      <c r="AID163" s="0"/>
-      <c r="AIE163" s="0"/>
-      <c r="AIF163" s="0"/>
-      <c r="AIG163" s="0"/>
-      <c r="AIH163" s="0"/>
-      <c r="AII163" s="0"/>
-      <c r="AIJ163" s="0"/>
-      <c r="AIK163" s="0"/>
-      <c r="AIL163" s="0"/>
-      <c r="AIM163" s="0"/>
-      <c r="AIN163" s="0"/>
-      <c r="AIO163" s="0"/>
-      <c r="AIP163" s="0"/>
-      <c r="AIQ163" s="0"/>
-      <c r="AIR163" s="0"/>
-      <c r="AIS163" s="0"/>
-      <c r="AIT163" s="0"/>
-      <c r="AIU163" s="0"/>
-      <c r="AIV163" s="0"/>
-      <c r="AIW163" s="0"/>
-      <c r="AIX163" s="0"/>
-      <c r="AIY163" s="0"/>
-      <c r="AIZ163" s="0"/>
-      <c r="AJA163" s="0"/>
-      <c r="AJB163" s="0"/>
-      <c r="AJC163" s="0"/>
-      <c r="AJD163" s="0"/>
-      <c r="AJE163" s="0"/>
-      <c r="AJF163" s="0"/>
-      <c r="AJG163" s="0"/>
-      <c r="AJH163" s="0"/>
-      <c r="AJI163" s="0"/>
-      <c r="AJJ163" s="0"/>
-      <c r="AJK163" s="0"/>
-      <c r="AJL163" s="0"/>
-      <c r="AJM163" s="0"/>
-      <c r="AJN163" s="0"/>
-      <c r="AJO163" s="0"/>
-      <c r="AJP163" s="0"/>
-      <c r="AJQ163" s="0"/>
-      <c r="AJR163" s="0"/>
-      <c r="AJS163" s="0"/>
-      <c r="AJT163" s="0"/>
-      <c r="AJU163" s="0"/>
-      <c r="AJV163" s="0"/>
-      <c r="AJW163" s="0"/>
-      <c r="AJX163" s="0"/>
-      <c r="AJY163" s="0"/>
-      <c r="AJZ163" s="0"/>
-      <c r="AKA163" s="0"/>
-      <c r="AKB163" s="0"/>
-      <c r="AKC163" s="0"/>
-      <c r="AKD163" s="0"/>
-      <c r="AKE163" s="0"/>
-      <c r="AKF163" s="0"/>
-      <c r="AKG163" s="0"/>
-      <c r="AKH163" s="0"/>
-      <c r="AKI163" s="0"/>
-      <c r="AKJ163" s="0"/>
-      <c r="AKK163" s="0"/>
-      <c r="AKL163" s="0"/>
-      <c r="AKM163" s="0"/>
-      <c r="AKN163" s="0"/>
-      <c r="AKO163" s="0"/>
-      <c r="AKP163" s="0"/>
-      <c r="AKQ163" s="0"/>
-      <c r="AKR163" s="0"/>
-      <c r="AKS163" s="0"/>
-      <c r="AKT163" s="0"/>
-      <c r="AKU163" s="0"/>
-      <c r="AKV163" s="0"/>
-      <c r="AKW163" s="0"/>
-      <c r="AKX163" s="0"/>
-      <c r="AKY163" s="0"/>
-      <c r="AKZ163" s="0"/>
-      <c r="ALA163" s="0"/>
-      <c r="ALB163" s="0"/>
-      <c r="ALC163" s="0"/>
-      <c r="ALD163" s="0"/>
-      <c r="ALE163" s="0"/>
-      <c r="ALF163" s="0"/>
-      <c r="ALG163" s="0"/>
-      <c r="ALH163" s="0"/>
-      <c r="ALI163" s="0"/>
-      <c r="ALJ163" s="0"/>
-      <c r="ALK163" s="0"/>
-      <c r="ALL163" s="0"/>
-      <c r="ALM163" s="0"/>
-      <c r="ALN163" s="0"/>
-      <c r="ALO163" s="0"/>
-      <c r="ALP163" s="0"/>
-      <c r="ALQ163" s="0"/>
-      <c r="ALR163" s="0"/>
-      <c r="ALS163" s="0"/>
-      <c r="ALT163" s="0"/>
-      <c r="ALU163" s="0"/>
-      <c r="ALV163" s="0"/>
-      <c r="ALW163" s="0"/>
-      <c r="ALX163" s="0"/>
-      <c r="ALY163" s="0"/>
-      <c r="ALZ163" s="0"/>
-      <c r="AMA163" s="0"/>
-      <c r="AMB163" s="0"/>
-      <c r="AMC163" s="0"/>
-      <c r="AMD163" s="0"/>
-      <c r="AME163" s="0"/>
-      <c r="AMF163" s="0"/>
-      <c r="AMG163" s="0"/>
-      <c r="AMH163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
@@ -6680,15 +5930,14 @@
         <v>573</v>
       </c>
       <c r="C164" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D164" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F164" s="0"/>
       <c r="G164" s="0"/>
       <c r="H164" s="0"/>
       <c r="I164" s="0"/>
@@ -7706,37 +6955,1053 @@
       <c r="AMG164" s="0"/>
       <c r="AMH164" s="0"/>
     </row>
-    <row r="165" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C165" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="D165" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="D165" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>579</v>
-      </c>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
+      <c r="M165" s="0"/>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
+      <c r="Q165" s="0"/>
+      <c r="R165" s="0"/>
+      <c r="S165" s="0"/>
+      <c r="T165" s="0"/>
+      <c r="U165" s="0"/>
+      <c r="V165" s="0"/>
+      <c r="W165" s="0"/>
+      <c r="X165" s="0"/>
+      <c r="Y165" s="0"/>
+      <c r="Z165" s="0"/>
+      <c r="AA165" s="0"/>
+      <c r="AB165" s="0"/>
+      <c r="AC165" s="0"/>
+      <c r="AD165" s="0"/>
+      <c r="AE165" s="0"/>
+      <c r="AF165" s="0"/>
+      <c r="AG165" s="0"/>
+      <c r="AH165" s="0"/>
+      <c r="AI165" s="0"/>
+      <c r="AJ165" s="0"/>
+      <c r="AK165" s="0"/>
+      <c r="AL165" s="0"/>
+      <c r="AM165" s="0"/>
+      <c r="AN165" s="0"/>
+      <c r="AO165" s="0"/>
+      <c r="AP165" s="0"/>
+      <c r="AQ165" s="0"/>
+      <c r="AR165" s="0"/>
+      <c r="AS165" s="0"/>
+      <c r="AT165" s="0"/>
+      <c r="AU165" s="0"/>
+      <c r="AV165" s="0"/>
+      <c r="AW165" s="0"/>
+      <c r="AX165" s="0"/>
+      <c r="AY165" s="0"/>
+      <c r="AZ165" s="0"/>
+      <c r="BA165" s="0"/>
+      <c r="BB165" s="0"/>
+      <c r="BC165" s="0"/>
+      <c r="BD165" s="0"/>
+      <c r="BE165" s="0"/>
+      <c r="BF165" s="0"/>
+      <c r="BG165" s="0"/>
+      <c r="BH165" s="0"/>
+      <c r="BI165" s="0"/>
+      <c r="BJ165" s="0"/>
+      <c r="BK165" s="0"/>
+      <c r="BL165" s="0"/>
+      <c r="BM165" s="0"/>
+      <c r="BN165" s="0"/>
+      <c r="BO165" s="0"/>
+      <c r="BP165" s="0"/>
+      <c r="BQ165" s="0"/>
+      <c r="BR165" s="0"/>
+      <c r="BS165" s="0"/>
+      <c r="BT165" s="0"/>
+      <c r="BU165" s="0"/>
+      <c r="BV165" s="0"/>
+      <c r="BW165" s="0"/>
+      <c r="BX165" s="0"/>
+      <c r="BY165" s="0"/>
+      <c r="BZ165" s="0"/>
+      <c r="CA165" s="0"/>
+      <c r="CB165" s="0"/>
+      <c r="CC165" s="0"/>
+      <c r="CD165" s="0"/>
+      <c r="CE165" s="0"/>
+      <c r="CF165" s="0"/>
+      <c r="CG165" s="0"/>
+      <c r="CH165" s="0"/>
+      <c r="CI165" s="0"/>
+      <c r="CJ165" s="0"/>
+      <c r="CK165" s="0"/>
+      <c r="CL165" s="0"/>
+      <c r="CM165" s="0"/>
+      <c r="CN165" s="0"/>
+      <c r="CO165" s="0"/>
+      <c r="CP165" s="0"/>
+      <c r="CQ165" s="0"/>
+      <c r="CR165" s="0"/>
+      <c r="CS165" s="0"/>
+      <c r="CT165" s="0"/>
+      <c r="CU165" s="0"/>
+      <c r="CV165" s="0"/>
+      <c r="CW165" s="0"/>
+      <c r="CX165" s="0"/>
+      <c r="CY165" s="0"/>
+      <c r="CZ165" s="0"/>
+      <c r="DA165" s="0"/>
+      <c r="DB165" s="0"/>
+      <c r="DC165" s="0"/>
+      <c r="DD165" s="0"/>
+      <c r="DE165" s="0"/>
+      <c r="DF165" s="0"/>
+      <c r="DG165" s="0"/>
+      <c r="DH165" s="0"/>
+      <c r="DI165" s="0"/>
+      <c r="DJ165" s="0"/>
+      <c r="DK165" s="0"/>
+      <c r="DL165" s="0"/>
+      <c r="DM165" s="0"/>
+      <c r="DN165" s="0"/>
+      <c r="DO165" s="0"/>
+      <c r="DP165" s="0"/>
+      <c r="DQ165" s="0"/>
+      <c r="DR165" s="0"/>
+      <c r="DS165" s="0"/>
+      <c r="DT165" s="0"/>
+      <c r="DU165" s="0"/>
+      <c r="DV165" s="0"/>
+      <c r="DW165" s="0"/>
+      <c r="DX165" s="0"/>
+      <c r="DY165" s="0"/>
+      <c r="DZ165" s="0"/>
+      <c r="EA165" s="0"/>
+      <c r="EB165" s="0"/>
+      <c r="EC165" s="0"/>
+      <c r="ED165" s="0"/>
+      <c r="EE165" s="0"/>
+      <c r="EF165" s="0"/>
+      <c r="EG165" s="0"/>
+      <c r="EH165" s="0"/>
+      <c r="EI165" s="0"/>
+      <c r="EJ165" s="0"/>
+      <c r="EK165" s="0"/>
+      <c r="EL165" s="0"/>
+      <c r="EM165" s="0"/>
+      <c r="EN165" s="0"/>
+      <c r="EO165" s="0"/>
+      <c r="EP165" s="0"/>
+      <c r="EQ165" s="0"/>
+      <c r="ER165" s="0"/>
+      <c r="ES165" s="0"/>
+      <c r="ET165" s="0"/>
+      <c r="EU165" s="0"/>
+      <c r="EV165" s="0"/>
+      <c r="EW165" s="0"/>
+      <c r="EX165" s="0"/>
+      <c r="EY165" s="0"/>
+      <c r="EZ165" s="0"/>
+      <c r="FA165" s="0"/>
+      <c r="FB165" s="0"/>
+      <c r="FC165" s="0"/>
+      <c r="FD165" s="0"/>
+      <c r="FE165" s="0"/>
+      <c r="FF165" s="0"/>
+      <c r="FG165" s="0"/>
+      <c r="FH165" s="0"/>
+      <c r="FI165" s="0"/>
+      <c r="FJ165" s="0"/>
+      <c r="FK165" s="0"/>
+      <c r="FL165" s="0"/>
+      <c r="FM165" s="0"/>
+      <c r="FN165" s="0"/>
+      <c r="FO165" s="0"/>
+      <c r="FP165" s="0"/>
+      <c r="FQ165" s="0"/>
+      <c r="FR165" s="0"/>
+      <c r="FS165" s="0"/>
+      <c r="FT165" s="0"/>
+      <c r="FU165" s="0"/>
+      <c r="FV165" s="0"/>
+      <c r="FW165" s="0"/>
+      <c r="FX165" s="0"/>
+      <c r="FY165" s="0"/>
+      <c r="FZ165" s="0"/>
+      <c r="GA165" s="0"/>
+      <c r="GB165" s="0"/>
+      <c r="GC165" s="0"/>
+      <c r="GD165" s="0"/>
+      <c r="GE165" s="0"/>
+      <c r="GF165" s="0"/>
+      <c r="GG165" s="0"/>
+      <c r="GH165" s="0"/>
+      <c r="GI165" s="0"/>
+      <c r="GJ165" s="0"/>
+      <c r="GK165" s="0"/>
+      <c r="GL165" s="0"/>
+      <c r="GM165" s="0"/>
+      <c r="GN165" s="0"/>
+      <c r="GO165" s="0"/>
+      <c r="GP165" s="0"/>
+      <c r="GQ165" s="0"/>
+      <c r="GR165" s="0"/>
+      <c r="GS165" s="0"/>
+      <c r="GT165" s="0"/>
+      <c r="GU165" s="0"/>
+      <c r="GV165" s="0"/>
+      <c r="GW165" s="0"/>
+      <c r="GX165" s="0"/>
+      <c r="GY165" s="0"/>
+      <c r="GZ165" s="0"/>
+      <c r="HA165" s="0"/>
+      <c r="HB165" s="0"/>
+      <c r="HC165" s="0"/>
+      <c r="HD165" s="0"/>
+      <c r="HE165" s="0"/>
+      <c r="HF165" s="0"/>
+      <c r="HG165" s="0"/>
+      <c r="HH165" s="0"/>
+      <c r="HI165" s="0"/>
+      <c r="HJ165" s="0"/>
+      <c r="HK165" s="0"/>
+      <c r="HL165" s="0"/>
+      <c r="HM165" s="0"/>
+      <c r="HN165" s="0"/>
+      <c r="HO165" s="0"/>
+      <c r="HP165" s="0"/>
+      <c r="HQ165" s="0"/>
+      <c r="HR165" s="0"/>
+      <c r="HS165" s="0"/>
+      <c r="HT165" s="0"/>
+      <c r="HU165" s="0"/>
+      <c r="HV165" s="0"/>
+      <c r="HW165" s="0"/>
+      <c r="HX165" s="0"/>
+      <c r="HY165" s="0"/>
+      <c r="HZ165" s="0"/>
+      <c r="IA165" s="0"/>
+      <c r="IB165" s="0"/>
+      <c r="IC165" s="0"/>
+      <c r="ID165" s="0"/>
+      <c r="IE165" s="0"/>
+      <c r="IF165" s="0"/>
+      <c r="IG165" s="0"/>
+      <c r="IH165" s="0"/>
+      <c r="II165" s="0"/>
+      <c r="IJ165" s="0"/>
+      <c r="IK165" s="0"/>
+      <c r="IL165" s="0"/>
+      <c r="IM165" s="0"/>
+      <c r="IN165" s="0"/>
+      <c r="IO165" s="0"/>
+      <c r="IP165" s="0"/>
+      <c r="IQ165" s="0"/>
+      <c r="IR165" s="0"/>
+      <c r="IS165" s="0"/>
+      <c r="IT165" s="0"/>
+      <c r="IU165" s="0"/>
+      <c r="IV165" s="0"/>
+      <c r="IW165" s="0"/>
+      <c r="IX165" s="0"/>
+      <c r="IY165" s="0"/>
+      <c r="IZ165" s="0"/>
+      <c r="JA165" s="0"/>
+      <c r="JB165" s="0"/>
+      <c r="JC165" s="0"/>
+      <c r="JD165" s="0"/>
+      <c r="JE165" s="0"/>
+      <c r="JF165" s="0"/>
+      <c r="JG165" s="0"/>
+      <c r="JH165" s="0"/>
+      <c r="JI165" s="0"/>
+      <c r="JJ165" s="0"/>
+      <c r="JK165" s="0"/>
+      <c r="JL165" s="0"/>
+      <c r="JM165" s="0"/>
+      <c r="JN165" s="0"/>
+      <c r="JO165" s="0"/>
+      <c r="JP165" s="0"/>
+      <c r="JQ165" s="0"/>
+      <c r="JR165" s="0"/>
+      <c r="JS165" s="0"/>
+      <c r="JT165" s="0"/>
+      <c r="JU165" s="0"/>
+      <c r="JV165" s="0"/>
+      <c r="JW165" s="0"/>
+      <c r="JX165" s="0"/>
+      <c r="JY165" s="0"/>
+      <c r="JZ165" s="0"/>
+      <c r="KA165" s="0"/>
+      <c r="KB165" s="0"/>
+      <c r="KC165" s="0"/>
+      <c r="KD165" s="0"/>
+      <c r="KE165" s="0"/>
+      <c r="KF165" s="0"/>
+      <c r="KG165" s="0"/>
+      <c r="KH165" s="0"/>
+      <c r="KI165" s="0"/>
+      <c r="KJ165" s="0"/>
+      <c r="KK165" s="0"/>
+      <c r="KL165" s="0"/>
+      <c r="KM165" s="0"/>
+      <c r="KN165" s="0"/>
+      <c r="KO165" s="0"/>
+      <c r="KP165" s="0"/>
+      <c r="KQ165" s="0"/>
+      <c r="KR165" s="0"/>
+      <c r="KS165" s="0"/>
+      <c r="KT165" s="0"/>
+      <c r="KU165" s="0"/>
+      <c r="KV165" s="0"/>
+      <c r="KW165" s="0"/>
+      <c r="KX165" s="0"/>
+      <c r="KY165" s="0"/>
+      <c r="KZ165" s="0"/>
+      <c r="LA165" s="0"/>
+      <c r="LB165" s="0"/>
+      <c r="LC165" s="0"/>
+      <c r="LD165" s="0"/>
+      <c r="LE165" s="0"/>
+      <c r="LF165" s="0"/>
+      <c r="LG165" s="0"/>
+      <c r="LH165" s="0"/>
+      <c r="LI165" s="0"/>
+      <c r="LJ165" s="0"/>
+      <c r="LK165" s="0"/>
+      <c r="LL165" s="0"/>
+      <c r="LM165" s="0"/>
+      <c r="LN165" s="0"/>
+      <c r="LO165" s="0"/>
+      <c r="LP165" s="0"/>
+      <c r="LQ165" s="0"/>
+      <c r="LR165" s="0"/>
+      <c r="LS165" s="0"/>
+      <c r="LT165" s="0"/>
+      <c r="LU165" s="0"/>
+      <c r="LV165" s="0"/>
+      <c r="LW165" s="0"/>
+      <c r="LX165" s="0"/>
+      <c r="LY165" s="0"/>
+      <c r="LZ165" s="0"/>
+      <c r="MA165" s="0"/>
+      <c r="MB165" s="0"/>
+      <c r="MC165" s="0"/>
+      <c r="MD165" s="0"/>
+      <c r="ME165" s="0"/>
+      <c r="MF165" s="0"/>
+      <c r="MG165" s="0"/>
+      <c r="MH165" s="0"/>
+      <c r="MI165" s="0"/>
+      <c r="MJ165" s="0"/>
+      <c r="MK165" s="0"/>
+      <c r="ML165" s="0"/>
+      <c r="MM165" s="0"/>
+      <c r="MN165" s="0"/>
+      <c r="MO165" s="0"/>
+      <c r="MP165" s="0"/>
+      <c r="MQ165" s="0"/>
+      <c r="MR165" s="0"/>
+      <c r="MS165" s="0"/>
+      <c r="MT165" s="0"/>
+      <c r="MU165" s="0"/>
+      <c r="MV165" s="0"/>
+      <c r="MW165" s="0"/>
+      <c r="MX165" s="0"/>
+      <c r="MY165" s="0"/>
+      <c r="MZ165" s="0"/>
+      <c r="NA165" s="0"/>
+      <c r="NB165" s="0"/>
+      <c r="NC165" s="0"/>
+      <c r="ND165" s="0"/>
+      <c r="NE165" s="0"/>
+      <c r="NF165" s="0"/>
+      <c r="NG165" s="0"/>
+      <c r="NH165" s="0"/>
+      <c r="NI165" s="0"/>
+      <c r="NJ165" s="0"/>
+      <c r="NK165" s="0"/>
+      <c r="NL165" s="0"/>
+      <c r="NM165" s="0"/>
+      <c r="NN165" s="0"/>
+      <c r="NO165" s="0"/>
+      <c r="NP165" s="0"/>
+      <c r="NQ165" s="0"/>
+      <c r="NR165" s="0"/>
+      <c r="NS165" s="0"/>
+      <c r="NT165" s="0"/>
+      <c r="NU165" s="0"/>
+      <c r="NV165" s="0"/>
+      <c r="NW165" s="0"/>
+      <c r="NX165" s="0"/>
+      <c r="NY165" s="0"/>
+      <c r="NZ165" s="0"/>
+      <c r="OA165" s="0"/>
+      <c r="OB165" s="0"/>
+      <c r="OC165" s="0"/>
+      <c r="OD165" s="0"/>
+      <c r="OE165" s="0"/>
+      <c r="OF165" s="0"/>
+      <c r="OG165" s="0"/>
+      <c r="OH165" s="0"/>
+      <c r="OI165" s="0"/>
+      <c r="OJ165" s="0"/>
+      <c r="OK165" s="0"/>
+      <c r="OL165" s="0"/>
+      <c r="OM165" s="0"/>
+      <c r="ON165" s="0"/>
+      <c r="OO165" s="0"/>
+      <c r="OP165" s="0"/>
+      <c r="OQ165" s="0"/>
+      <c r="OR165" s="0"/>
+      <c r="OS165" s="0"/>
+      <c r="OT165" s="0"/>
+      <c r="OU165" s="0"/>
+      <c r="OV165" s="0"/>
+      <c r="OW165" s="0"/>
+      <c r="OX165" s="0"/>
+      <c r="OY165" s="0"/>
+      <c r="OZ165" s="0"/>
+      <c r="PA165" s="0"/>
+      <c r="PB165" s="0"/>
+      <c r="PC165" s="0"/>
+      <c r="PD165" s="0"/>
+      <c r="PE165" s="0"/>
+      <c r="PF165" s="0"/>
+      <c r="PG165" s="0"/>
+      <c r="PH165" s="0"/>
+      <c r="PI165" s="0"/>
+      <c r="PJ165" s="0"/>
+      <c r="PK165" s="0"/>
+      <c r="PL165" s="0"/>
+      <c r="PM165" s="0"/>
+      <c r="PN165" s="0"/>
+      <c r="PO165" s="0"/>
+      <c r="PP165" s="0"/>
+      <c r="PQ165" s="0"/>
+      <c r="PR165" s="0"/>
+      <c r="PS165" s="0"/>
+      <c r="PT165" s="0"/>
+      <c r="PU165" s="0"/>
+      <c r="PV165" s="0"/>
+      <c r="PW165" s="0"/>
+      <c r="PX165" s="0"/>
+      <c r="PY165" s="0"/>
+      <c r="PZ165" s="0"/>
+      <c r="QA165" s="0"/>
+      <c r="QB165" s="0"/>
+      <c r="QC165" s="0"/>
+      <c r="QD165" s="0"/>
+      <c r="QE165" s="0"/>
+      <c r="QF165" s="0"/>
+      <c r="QG165" s="0"/>
+      <c r="QH165" s="0"/>
+      <c r="QI165" s="0"/>
+      <c r="QJ165" s="0"/>
+      <c r="QK165" s="0"/>
+      <c r="QL165" s="0"/>
+      <c r="QM165" s="0"/>
+      <c r="QN165" s="0"/>
+      <c r="QO165" s="0"/>
+      <c r="QP165" s="0"/>
+      <c r="QQ165" s="0"/>
+      <c r="QR165" s="0"/>
+      <c r="QS165" s="0"/>
+      <c r="QT165" s="0"/>
+      <c r="QU165" s="0"/>
+      <c r="QV165" s="0"/>
+      <c r="QW165" s="0"/>
+      <c r="QX165" s="0"/>
+      <c r="QY165" s="0"/>
+      <c r="QZ165" s="0"/>
+      <c r="RA165" s="0"/>
+      <c r="RB165" s="0"/>
+      <c r="RC165" s="0"/>
+      <c r="RD165" s="0"/>
+      <c r="RE165" s="0"/>
+      <c r="RF165" s="0"/>
+      <c r="RG165" s="0"/>
+      <c r="RH165" s="0"/>
+      <c r="RI165" s="0"/>
+      <c r="RJ165" s="0"/>
+      <c r="RK165" s="0"/>
+      <c r="RL165" s="0"/>
+      <c r="RM165" s="0"/>
+      <c r="RN165" s="0"/>
+      <c r="RO165" s="0"/>
+      <c r="RP165" s="0"/>
+      <c r="RQ165" s="0"/>
+      <c r="RR165" s="0"/>
+      <c r="RS165" s="0"/>
+      <c r="RT165" s="0"/>
+      <c r="RU165" s="0"/>
+      <c r="RV165" s="0"/>
+      <c r="RW165" s="0"/>
+      <c r="RX165" s="0"/>
+      <c r="RY165" s="0"/>
+      <c r="RZ165" s="0"/>
+      <c r="SA165" s="0"/>
+      <c r="SB165" s="0"/>
+      <c r="SC165" s="0"/>
+      <c r="SD165" s="0"/>
+      <c r="SE165" s="0"/>
+      <c r="SF165" s="0"/>
+      <c r="SG165" s="0"/>
+      <c r="SH165" s="0"/>
+      <c r="SI165" s="0"/>
+      <c r="SJ165" s="0"/>
+      <c r="SK165" s="0"/>
+      <c r="SL165" s="0"/>
+      <c r="SM165" s="0"/>
+      <c r="SN165" s="0"/>
+      <c r="SO165" s="0"/>
+      <c r="SP165" s="0"/>
+      <c r="SQ165" s="0"/>
+      <c r="SR165" s="0"/>
+      <c r="SS165" s="0"/>
+      <c r="ST165" s="0"/>
+      <c r="SU165" s="0"/>
+      <c r="SV165" s="0"/>
+      <c r="SW165" s="0"/>
+      <c r="SX165" s="0"/>
+      <c r="SY165" s="0"/>
+      <c r="SZ165" s="0"/>
+      <c r="TA165" s="0"/>
+      <c r="TB165" s="0"/>
+      <c r="TC165" s="0"/>
+      <c r="TD165" s="0"/>
+      <c r="TE165" s="0"/>
+      <c r="TF165" s="0"/>
+      <c r="TG165" s="0"/>
+      <c r="TH165" s="0"/>
+      <c r="TI165" s="0"/>
+      <c r="TJ165" s="0"/>
+      <c r="TK165" s="0"/>
+      <c r="TL165" s="0"/>
+      <c r="TM165" s="0"/>
+      <c r="TN165" s="0"/>
+      <c r="TO165" s="0"/>
+      <c r="TP165" s="0"/>
+      <c r="TQ165" s="0"/>
+      <c r="TR165" s="0"/>
+      <c r="TS165" s="0"/>
+      <c r="TT165" s="0"/>
+      <c r="TU165" s="0"/>
+      <c r="TV165" s="0"/>
+      <c r="TW165" s="0"/>
+      <c r="TX165" s="0"/>
+      <c r="TY165" s="0"/>
+      <c r="TZ165" s="0"/>
+      <c r="UA165" s="0"/>
+      <c r="UB165" s="0"/>
+      <c r="UC165" s="0"/>
+      <c r="UD165" s="0"/>
+      <c r="UE165" s="0"/>
+      <c r="UF165" s="0"/>
+      <c r="UG165" s="0"/>
+      <c r="UH165" s="0"/>
+      <c r="UI165" s="0"/>
+      <c r="UJ165" s="0"/>
+      <c r="UK165" s="0"/>
+      <c r="UL165" s="0"/>
+      <c r="UM165" s="0"/>
+      <c r="UN165" s="0"/>
+      <c r="UO165" s="0"/>
+      <c r="UP165" s="0"/>
+      <c r="UQ165" s="0"/>
+      <c r="UR165" s="0"/>
+      <c r="US165" s="0"/>
+      <c r="UT165" s="0"/>
+      <c r="UU165" s="0"/>
+      <c r="UV165" s="0"/>
+      <c r="UW165" s="0"/>
+      <c r="UX165" s="0"/>
+      <c r="UY165" s="0"/>
+      <c r="UZ165" s="0"/>
+      <c r="VA165" s="0"/>
+      <c r="VB165" s="0"/>
+      <c r="VC165" s="0"/>
+      <c r="VD165" s="0"/>
+      <c r="VE165" s="0"/>
+      <c r="VF165" s="0"/>
+      <c r="VG165" s="0"/>
+      <c r="VH165" s="0"/>
+      <c r="VI165" s="0"/>
+      <c r="VJ165" s="0"/>
+      <c r="VK165" s="0"/>
+      <c r="VL165" s="0"/>
+      <c r="VM165" s="0"/>
+      <c r="VN165" s="0"/>
+      <c r="VO165" s="0"/>
+      <c r="VP165" s="0"/>
+      <c r="VQ165" s="0"/>
+      <c r="VR165" s="0"/>
+      <c r="VS165" s="0"/>
+      <c r="VT165" s="0"/>
+      <c r="VU165" s="0"/>
+      <c r="VV165" s="0"/>
+      <c r="VW165" s="0"/>
+      <c r="VX165" s="0"/>
+      <c r="VY165" s="0"/>
+      <c r="VZ165" s="0"/>
+      <c r="WA165" s="0"/>
+      <c r="WB165" s="0"/>
+      <c r="WC165" s="0"/>
+      <c r="WD165" s="0"/>
+      <c r="WE165" s="0"/>
+      <c r="WF165" s="0"/>
+      <c r="WG165" s="0"/>
+      <c r="WH165" s="0"/>
+      <c r="WI165" s="0"/>
+      <c r="WJ165" s="0"/>
+      <c r="WK165" s="0"/>
+      <c r="WL165" s="0"/>
+      <c r="WM165" s="0"/>
+      <c r="WN165" s="0"/>
+      <c r="WO165" s="0"/>
+      <c r="WP165" s="0"/>
+      <c r="WQ165" s="0"/>
+      <c r="WR165" s="0"/>
+      <c r="WS165" s="0"/>
+      <c r="WT165" s="0"/>
+      <c r="WU165" s="0"/>
+      <c r="WV165" s="0"/>
+      <c r="WW165" s="0"/>
+      <c r="WX165" s="0"/>
+      <c r="WY165" s="0"/>
+      <c r="WZ165" s="0"/>
+      <c r="XA165" s="0"/>
+      <c r="XB165" s="0"/>
+      <c r="XC165" s="0"/>
+      <c r="XD165" s="0"/>
+      <c r="XE165" s="0"/>
+      <c r="XF165" s="0"/>
+      <c r="XG165" s="0"/>
+      <c r="XH165" s="0"/>
+      <c r="XI165" s="0"/>
+      <c r="XJ165" s="0"/>
+      <c r="XK165" s="0"/>
+      <c r="XL165" s="0"/>
+      <c r="XM165" s="0"/>
+      <c r="XN165" s="0"/>
+      <c r="XO165" s="0"/>
+      <c r="XP165" s="0"/>
+      <c r="XQ165" s="0"/>
+      <c r="XR165" s="0"/>
+      <c r="XS165" s="0"/>
+      <c r="XT165" s="0"/>
+      <c r="XU165" s="0"/>
+      <c r="XV165" s="0"/>
+      <c r="XW165" s="0"/>
+      <c r="XX165" s="0"/>
+      <c r="XY165" s="0"/>
+      <c r="XZ165" s="0"/>
+      <c r="YA165" s="0"/>
+      <c r="YB165" s="0"/>
+      <c r="YC165" s="0"/>
+      <c r="YD165" s="0"/>
+      <c r="YE165" s="0"/>
+      <c r="YF165" s="0"/>
+      <c r="YG165" s="0"/>
+      <c r="YH165" s="0"/>
+      <c r="YI165" s="0"/>
+      <c r="YJ165" s="0"/>
+      <c r="YK165" s="0"/>
+      <c r="YL165" s="0"/>
+      <c r="YM165" s="0"/>
+      <c r="YN165" s="0"/>
+      <c r="YO165" s="0"/>
+      <c r="YP165" s="0"/>
+      <c r="YQ165" s="0"/>
+      <c r="YR165" s="0"/>
+      <c r="YS165" s="0"/>
+      <c r="YT165" s="0"/>
+      <c r="YU165" s="0"/>
+      <c r="YV165" s="0"/>
+      <c r="YW165" s="0"/>
+      <c r="YX165" s="0"/>
+      <c r="YY165" s="0"/>
+      <c r="YZ165" s="0"/>
+      <c r="ZA165" s="0"/>
+      <c r="ZB165" s="0"/>
+      <c r="ZC165" s="0"/>
+      <c r="ZD165" s="0"/>
+      <c r="ZE165" s="0"/>
+      <c r="ZF165" s="0"/>
+      <c r="ZG165" s="0"/>
+      <c r="ZH165" s="0"/>
+      <c r="ZI165" s="0"/>
+      <c r="ZJ165" s="0"/>
+      <c r="ZK165" s="0"/>
+      <c r="ZL165" s="0"/>
+      <c r="ZM165" s="0"/>
+      <c r="ZN165" s="0"/>
+      <c r="ZO165" s="0"/>
+      <c r="ZP165" s="0"/>
+      <c r="ZQ165" s="0"/>
+      <c r="ZR165" s="0"/>
+      <c r="ZS165" s="0"/>
+      <c r="ZT165" s="0"/>
+      <c r="ZU165" s="0"/>
+      <c r="ZV165" s="0"/>
+      <c r="ZW165" s="0"/>
+      <c r="ZX165" s="0"/>
+      <c r="ZY165" s="0"/>
+      <c r="ZZ165" s="0"/>
+      <c r="AAA165" s="0"/>
+      <c r="AAB165" s="0"/>
+      <c r="AAC165" s="0"/>
+      <c r="AAD165" s="0"/>
+      <c r="AAE165" s="0"/>
+      <c r="AAF165" s="0"/>
+      <c r="AAG165" s="0"/>
+      <c r="AAH165" s="0"/>
+      <c r="AAI165" s="0"/>
+      <c r="AAJ165" s="0"/>
+      <c r="AAK165" s="0"/>
+      <c r="AAL165" s="0"/>
+      <c r="AAM165" s="0"/>
+      <c r="AAN165" s="0"/>
+      <c r="AAO165" s="0"/>
+      <c r="AAP165" s="0"/>
+      <c r="AAQ165" s="0"/>
+      <c r="AAR165" s="0"/>
+      <c r="AAS165" s="0"/>
+      <c r="AAT165" s="0"/>
+      <c r="AAU165" s="0"/>
+      <c r="AAV165" s="0"/>
+      <c r="AAW165" s="0"/>
+      <c r="AAX165" s="0"/>
+      <c r="AAY165" s="0"/>
+      <c r="AAZ165" s="0"/>
+      <c r="ABA165" s="0"/>
+      <c r="ABB165" s="0"/>
+      <c r="ABC165" s="0"/>
+      <c r="ABD165" s="0"/>
+      <c r="ABE165" s="0"/>
+      <c r="ABF165" s="0"/>
+      <c r="ABG165" s="0"/>
+      <c r="ABH165" s="0"/>
+      <c r="ABI165" s="0"/>
+      <c r="ABJ165" s="0"/>
+      <c r="ABK165" s="0"/>
+      <c r="ABL165" s="0"/>
+      <c r="ABM165" s="0"/>
+      <c r="ABN165" s="0"/>
+      <c r="ABO165" s="0"/>
+      <c r="ABP165" s="0"/>
+      <c r="ABQ165" s="0"/>
+      <c r="ABR165" s="0"/>
+      <c r="ABS165" s="0"/>
+      <c r="ABT165" s="0"/>
+      <c r="ABU165" s="0"/>
+      <c r="ABV165" s="0"/>
+      <c r="ABW165" s="0"/>
+      <c r="ABX165" s="0"/>
+      <c r="ABY165" s="0"/>
+      <c r="ABZ165" s="0"/>
+      <c r="ACA165" s="0"/>
+      <c r="ACB165" s="0"/>
+      <c r="ACC165" s="0"/>
+      <c r="ACD165" s="0"/>
+      <c r="ACE165" s="0"/>
+      <c r="ACF165" s="0"/>
+      <c r="ACG165" s="0"/>
+      <c r="ACH165" s="0"/>
+      <c r="ACI165" s="0"/>
+      <c r="ACJ165" s="0"/>
+      <c r="ACK165" s="0"/>
+      <c r="ACL165" s="0"/>
+      <c r="ACM165" s="0"/>
+      <c r="ACN165" s="0"/>
+      <c r="ACO165" s="0"/>
+      <c r="ACP165" s="0"/>
+      <c r="ACQ165" s="0"/>
+      <c r="ACR165" s="0"/>
+      <c r="ACS165" s="0"/>
+      <c r="ACT165" s="0"/>
+      <c r="ACU165" s="0"/>
+      <c r="ACV165" s="0"/>
+      <c r="ACW165" s="0"/>
+      <c r="ACX165" s="0"/>
+      <c r="ACY165" s="0"/>
+      <c r="ACZ165" s="0"/>
+      <c r="ADA165" s="0"/>
+      <c r="ADB165" s="0"/>
+      <c r="ADC165" s="0"/>
+      <c r="ADD165" s="0"/>
+      <c r="ADE165" s="0"/>
+      <c r="ADF165" s="0"/>
+      <c r="ADG165" s="0"/>
+      <c r="ADH165" s="0"/>
+      <c r="ADI165" s="0"/>
+      <c r="ADJ165" s="0"/>
+      <c r="ADK165" s="0"/>
+      <c r="ADL165" s="0"/>
+      <c r="ADM165" s="0"/>
+      <c r="ADN165" s="0"/>
+      <c r="ADO165" s="0"/>
+      <c r="ADP165" s="0"/>
+      <c r="ADQ165" s="0"/>
+      <c r="ADR165" s="0"/>
+      <c r="ADS165" s="0"/>
+      <c r="ADT165" s="0"/>
+      <c r="ADU165" s="0"/>
+      <c r="ADV165" s="0"/>
+      <c r="ADW165" s="0"/>
+      <c r="ADX165" s="0"/>
+      <c r="ADY165" s="0"/>
+      <c r="ADZ165" s="0"/>
+      <c r="AEA165" s="0"/>
+      <c r="AEB165" s="0"/>
+      <c r="AEC165" s="0"/>
+      <c r="AED165" s="0"/>
+      <c r="AEE165" s="0"/>
+      <c r="AEF165" s="0"/>
+      <c r="AEG165" s="0"/>
+      <c r="AEH165" s="0"/>
+      <c r="AEI165" s="0"/>
+      <c r="AEJ165" s="0"/>
+      <c r="AEK165" s="0"/>
+      <c r="AEL165" s="0"/>
+      <c r="AEM165" s="0"/>
+      <c r="AEN165" s="0"/>
+      <c r="AEO165" s="0"/>
+      <c r="AEP165" s="0"/>
+      <c r="AEQ165" s="0"/>
+      <c r="AER165" s="0"/>
+      <c r="AES165" s="0"/>
+      <c r="AET165" s="0"/>
+      <c r="AEU165" s="0"/>
+      <c r="AEV165" s="0"/>
+      <c r="AEW165" s="0"/>
+      <c r="AEX165" s="0"/>
+      <c r="AEY165" s="0"/>
+      <c r="AEZ165" s="0"/>
+      <c r="AFA165" s="0"/>
+      <c r="AFB165" s="0"/>
+      <c r="AFC165" s="0"/>
+      <c r="AFD165" s="0"/>
+      <c r="AFE165" s="0"/>
+      <c r="AFF165" s="0"/>
+      <c r="AFG165" s="0"/>
+      <c r="AFH165" s="0"/>
+      <c r="AFI165" s="0"/>
+      <c r="AFJ165" s="0"/>
+      <c r="AFK165" s="0"/>
+      <c r="AFL165" s="0"/>
+      <c r="AFM165" s="0"/>
+      <c r="AFN165" s="0"/>
+      <c r="AFO165" s="0"/>
+      <c r="AFP165" s="0"/>
+      <c r="AFQ165" s="0"/>
+      <c r="AFR165" s="0"/>
+      <c r="AFS165" s="0"/>
+      <c r="AFT165" s="0"/>
+      <c r="AFU165" s="0"/>
+      <c r="AFV165" s="0"/>
+      <c r="AFW165" s="0"/>
+      <c r="AFX165" s="0"/>
+      <c r="AFY165" s="0"/>
+      <c r="AFZ165" s="0"/>
+      <c r="AGA165" s="0"/>
+      <c r="AGB165" s="0"/>
+      <c r="AGC165" s="0"/>
+      <c r="AGD165" s="0"/>
+      <c r="AGE165" s="0"/>
+      <c r="AGF165" s="0"/>
+      <c r="AGG165" s="0"/>
+      <c r="AGH165" s="0"/>
+      <c r="AGI165" s="0"/>
+      <c r="AGJ165" s="0"/>
+      <c r="AGK165" s="0"/>
+      <c r="AGL165" s="0"/>
+      <c r="AGM165" s="0"/>
+      <c r="AGN165" s="0"/>
+      <c r="AGO165" s="0"/>
+      <c r="AGP165" s="0"/>
+      <c r="AGQ165" s="0"/>
+      <c r="AGR165" s="0"/>
+      <c r="AGS165" s="0"/>
+      <c r="AGT165" s="0"/>
+      <c r="AGU165" s="0"/>
+      <c r="AGV165" s="0"/>
+      <c r="AGW165" s="0"/>
+      <c r="AGX165" s="0"/>
+      <c r="AGY165" s="0"/>
+      <c r="AGZ165" s="0"/>
+      <c r="AHA165" s="0"/>
+      <c r="AHB165" s="0"/>
+      <c r="AHC165" s="0"/>
+      <c r="AHD165" s="0"/>
+      <c r="AHE165" s="0"/>
+      <c r="AHF165" s="0"/>
+      <c r="AHG165" s="0"/>
+      <c r="AHH165" s="0"/>
+      <c r="AHI165" s="0"/>
+      <c r="AHJ165" s="0"/>
+      <c r="AHK165" s="0"/>
+      <c r="AHL165" s="0"/>
+      <c r="AHM165" s="0"/>
+      <c r="AHN165" s="0"/>
+      <c r="AHO165" s="0"/>
+      <c r="AHP165" s="0"/>
+      <c r="AHQ165" s="0"/>
+      <c r="AHR165" s="0"/>
+      <c r="AHS165" s="0"/>
+      <c r="AHT165" s="0"/>
+      <c r="AHU165" s="0"/>
+      <c r="AHV165" s="0"/>
+      <c r="AHW165" s="0"/>
+      <c r="AHX165" s="0"/>
+      <c r="AHY165" s="0"/>
+      <c r="AHZ165" s="0"/>
+      <c r="AIA165" s="0"/>
+      <c r="AIB165" s="0"/>
+      <c r="AIC165" s="0"/>
+      <c r="AID165" s="0"/>
+      <c r="AIE165" s="0"/>
+      <c r="AIF165" s="0"/>
+      <c r="AIG165" s="0"/>
+      <c r="AIH165" s="0"/>
+      <c r="AII165" s="0"/>
+      <c r="AIJ165" s="0"/>
+      <c r="AIK165" s="0"/>
+      <c r="AIL165" s="0"/>
+      <c r="AIM165" s="0"/>
+      <c r="AIN165" s="0"/>
+      <c r="AIO165" s="0"/>
+      <c r="AIP165" s="0"/>
+      <c r="AIQ165" s="0"/>
+      <c r="AIR165" s="0"/>
+      <c r="AIS165" s="0"/>
+      <c r="AIT165" s="0"/>
+      <c r="AIU165" s="0"/>
+      <c r="AIV165" s="0"/>
+      <c r="AIW165" s="0"/>
+      <c r="AIX165" s="0"/>
+      <c r="AIY165" s="0"/>
+      <c r="AIZ165" s="0"/>
+      <c r="AJA165" s="0"/>
+      <c r="AJB165" s="0"/>
+      <c r="AJC165" s="0"/>
+      <c r="AJD165" s="0"/>
+      <c r="AJE165" s="0"/>
+      <c r="AJF165" s="0"/>
+      <c r="AJG165" s="0"/>
+      <c r="AJH165" s="0"/>
+      <c r="AJI165" s="0"/>
+      <c r="AJJ165" s="0"/>
+      <c r="AJK165" s="0"/>
+      <c r="AJL165" s="0"/>
+      <c r="AJM165" s="0"/>
+      <c r="AJN165" s="0"/>
+      <c r="AJO165" s="0"/>
+      <c r="AJP165" s="0"/>
+      <c r="AJQ165" s="0"/>
+      <c r="AJR165" s="0"/>
+      <c r="AJS165" s="0"/>
+      <c r="AJT165" s="0"/>
+      <c r="AJU165" s="0"/>
+      <c r="AJV165" s="0"/>
+      <c r="AJW165" s="0"/>
+      <c r="AJX165" s="0"/>
+      <c r="AJY165" s="0"/>
+      <c r="AJZ165" s="0"/>
+      <c r="AKA165" s="0"/>
+      <c r="AKB165" s="0"/>
+      <c r="AKC165" s="0"/>
+      <c r="AKD165" s="0"/>
+      <c r="AKE165" s="0"/>
+      <c r="AKF165" s="0"/>
+      <c r="AKG165" s="0"/>
+      <c r="AKH165" s="0"/>
+      <c r="AKI165" s="0"/>
+      <c r="AKJ165" s="0"/>
+      <c r="AKK165" s="0"/>
+      <c r="AKL165" s="0"/>
+      <c r="AKM165" s="0"/>
+      <c r="AKN165" s="0"/>
+      <c r="AKO165" s="0"/>
+      <c r="AKP165" s="0"/>
+      <c r="AKQ165" s="0"/>
+      <c r="AKR165" s="0"/>
+      <c r="AKS165" s="0"/>
+      <c r="AKT165" s="0"/>
+      <c r="AKU165" s="0"/>
+      <c r="AKV165" s="0"/>
+      <c r="AKW165" s="0"/>
+      <c r="AKX165" s="0"/>
+      <c r="AKY165" s="0"/>
+      <c r="AKZ165" s="0"/>
+      <c r="ALA165" s="0"/>
+      <c r="ALB165" s="0"/>
+      <c r="ALC165" s="0"/>
+      <c r="ALD165" s="0"/>
+      <c r="ALE165" s="0"/>
+      <c r="ALF165" s="0"/>
+      <c r="ALG165" s="0"/>
+      <c r="ALH165" s="0"/>
+      <c r="ALI165" s="0"/>
+      <c r="ALJ165" s="0"/>
+      <c r="ALK165" s="0"/>
+      <c r="ALL165" s="0"/>
+      <c r="ALM165" s="0"/>
+      <c r="ALN165" s="0"/>
+      <c r="ALO165" s="0"/>
+      <c r="ALP165" s="0"/>
+      <c r="ALQ165" s="0"/>
+      <c r="ALR165" s="0"/>
+      <c r="ALS165" s="0"/>
+      <c r="ALT165" s="0"/>
+      <c r="ALU165" s="0"/>
+      <c r="ALV165" s="0"/>
+      <c r="ALW165" s="0"/>
+      <c r="ALX165" s="0"/>
+      <c r="ALY165" s="0"/>
+      <c r="ALZ165" s="0"/>
+      <c r="AMA165" s="0"/>
+      <c r="AMB165" s="0"/>
+      <c r="AMC165" s="0"/>
+      <c r="AMD165" s="0"/>
+      <c r="AME165" s="0"/>
+      <c r="AMF165" s="0"/>
+      <c r="AMG165" s="0"/>
+      <c r="AMH165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D166" s="1" t="n">
+      <c r="D166" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="3" t="s">
         <v>582</v>
       </c>
     </row>
@@ -7748,16 +8013,16 @@
         <v>584</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D167" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="D167" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="3" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>586</v>
       </c>
@@ -7765,80 +8030,80 @@
         <v>587</v>
       </c>
       <c r="C168" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D168" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="D168" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="C169" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D169" s="1" t="n">
+      <c r="D169" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
+    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D170" s="8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E170" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="D170" s="1" t="n">
+    </row>
+    <row r="171" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D171" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="C171" s="5" t="s">
+      <c r="E171" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="D171" s="1" t="n">
+    </row>
+    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D172" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="D172" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="3" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7850,50 +8115,50 @@
         <v>605</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D173" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D173" s="1" t="n">
+    </row>
+    <row r="174" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D174" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C174" s="5" t="s">
+      <c r="E174" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="D174" s="1" t="n">
+    </row>
+    <row r="175" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D175" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="D175" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
         <v>615</v>
       </c>
@@ -7901,16 +8166,16 @@
         <v>616</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D176" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="D176" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
         <v>618</v>
       </c>
@@ -7918,46 +8183,46 @@
         <v>619</v>
       </c>
       <c r="C177" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D177" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E177" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="D177" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="C178" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="D178" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D178" s="1" t="n">
+    </row>
+    <row r="179" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D179" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D179" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" s="3" t="s">
         <v>628</v>
       </c>
     </row>
@@ -7969,114 +8234,114 @@
         <v>630</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="D180" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="C181" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="D181" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="D181" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>429</v>
+        <v>636</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>637</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D182" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="D182" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>639</v>
+        <v>432</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>640</v>
       </c>
       <c r="C183" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="D183" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="C184" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="D184" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="D184" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="C185" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="D185" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E185" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="D185" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="C186" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D186" s="1" t="n">
+      <c r="D186" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="3" t="s">
         <v>653</v>
       </c>
     </row>
@@ -8088,84 +8353,84 @@
         <v>655</v>
       </c>
       <c r="C187" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D187" s="1" t="n">
+    </row>
+    <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D188" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C188" s="5" t="s">
+      <c r="E188" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D188" s="1" t="n">
+    </row>
+    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D189" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D189" s="1" t="n">
+      <c r="E189" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D190" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="C190" s="5" t="s">
+      <c r="E190" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D190" s="1" t="n">
+      <c r="D191" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D191" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="8" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
         <v>671</v>
       </c>
@@ -8173,12 +8438,12 @@
         <v>672</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D192" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D192" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="3" t="s">
         <v>673</v>
       </c>
     </row>
@@ -8190,12 +8455,12 @@
         <v>675</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D193" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="D193" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="3" t="s">
         <v>676</v>
       </c>
     </row>
@@ -8207,29 +8472,29 @@
         <v>678</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="D194" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="C195" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D195" s="1" t="n">
+      <c r="D195" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="3" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8241,12 +8506,12 @@
         <v>685</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D196" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="D196" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" s="3" t="s">
         <v>686</v>
       </c>
     </row>
@@ -8258,12 +8523,12 @@
         <v>688</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D197" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D197" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" s="3" t="s">
         <v>689</v>
       </c>
     </row>
@@ -8275,46 +8540,46 @@
         <v>691</v>
       </c>
       <c r="C198" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D198" s="1" t="n">
+    </row>
+    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D199" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="C199" s="5" t="s">
+      <c r="E199" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D199" s="1" t="n">
+    </row>
+    <row r="200" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D200" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D200" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" s="3" t="s">
         <v>700</v>
       </c>
     </row>
@@ -8328,27 +8593,27 @@
       <c r="C201" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D201" s="1" t="n">
+      <c r="D201" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" s="3" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D202" s="1" t="n">
+      <c r="C202" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D202" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" s="8" t="s">
         <v>706</v>
       </c>
     </row>
@@ -8360,63 +8625,63 @@
         <v>708</v>
       </c>
       <c r="C203" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E203" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="D203" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="C204" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="D204" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D204" s="1" t="n">
+      <c r="D205" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="E205" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C206" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D205" s="1" t="n">
+      <c r="D206" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D206" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" s="8" t="s">
         <v>719</v>
       </c>
     </row>
@@ -8430,44 +8695,44 @@
       <c r="C207" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D207" s="1" t="n">
+      <c r="D207" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" s="3" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D208" s="1" t="n">
+      <c r="D208" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" s="8" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D209" s="1" t="n">
+      <c r="C209" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D209" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" s="8" t="s">
         <v>728</v>
       </c>
     </row>
@@ -8479,937 +8744,1245 @@
         <v>730</v>
       </c>
       <c r="C210" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D210" s="1" t="n">
+    </row>
+    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D211" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="4" t="s">
+      <c r="E211" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="C211" s="5" t="s">
+      <c r="B212" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C212" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D211" s="1" t="n">
+      <c r="D212" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="C212" s="5" t="s">
+      <c r="E212" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="D212" s="1" t="n">
+    </row>
+    <row r="213" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D213" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="C213" s="5" t="s">
+      <c r="E213" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C214" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D213" s="1" t="n">
+      <c r="D214" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="B214" s="4" t="s">
+      <c r="E214" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="C214" s="5" t="s">
+    </row>
+    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C215" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D214" s="1" t="n">
+      <c r="D215" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B215" s="4" t="s">
+      <c r="E215" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="C215" s="5" t="s">
+    </row>
+    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D215" s="1" t="n">
+      <c r="D216" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="B216" s="4" t="s">
+      <c r="E216" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D216" s="1" t="n">
+    </row>
+    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D217" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B217" s="4" t="s">
+      <c r="E217" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="C217" s="5" t="s">
+    </row>
+    <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="D217" s="1" t="n">
+      <c r="B218" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D218" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="B218" s="4" t="s">
+      <c r="E218" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D218" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="C219" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D219" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E219" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C219" s="5" t="s">
+    </row>
+    <row r="220" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C220" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D219" s="1" t="n">
+      <c r="D220" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="B220" s="4" t="s">
+      <c r="E220" s="8" t="s">
         <v>760</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D220" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="C221" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D221" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E221" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C221" s="5" t="s">
+    </row>
+    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C222" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D221" s="1" t="n">
+      <c r="D222" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="B222" s="4" t="s">
+      <c r="E222" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D222" s="1" t="n">
+    </row>
+    <row r="223" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D223" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="B223" s="4" t="s">
+      <c r="E223" s="3" t="s">
         <v>769</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D223" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="C224" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E224" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C224" s="5" t="s">
+    </row>
+    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C225" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D224" s="1" t="n">
+      <c r="D225" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="B225" s="4" t="s">
+      <c r="E225" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="C225" s="5" t="s">
+    </row>
+    <row r="226" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="D225" s="1" t="n">
+      <c r="B226" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="D226" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B226" s="4" t="s">
+      <c r="E226" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D226" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="C227" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D227" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E227" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D227" s="1" t="n">
+    </row>
+    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D228" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="C228" s="5" t="s">
+      <c r="E228" s="8" t="s">
         <v>785</v>
-      </c>
-      <c r="D228" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="D229" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E229" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D229" s="1" t="n">
+    </row>
+    <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D230" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B230" s="4" t="s">
+      <c r="E230" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="D230" s="1" t="n">
+    </row>
+    <row r="231" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D231" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="B231" s="4" t="s">
+      <c r="E231" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D231" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E231" s="1" t="s">
+    </row>
+    <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="4" t="s">
         <v>795</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>796</v>
       </c>
       <c r="C232" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D232" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="C233" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D232" s="1" t="n">
+      <c r="D233" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="B233" s="4" t="s">
+      <c r="E233" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="C233" s="5" t="s">
+    </row>
+    <row r="234" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="D233" s="1" t="n">
+      <c r="B234" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D234" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="B234" s="4" t="s">
+      <c r="E234" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D234" s="1" t="n">
+    </row>
+    <row r="235" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D235" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B235" s="4" t="s">
+      <c r="E235" s="8" t="s">
         <v>806</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D235" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="C236" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D236" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E236" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="C236" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D236" s="1" t="n">
+    </row>
+    <row r="237" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D237" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D237" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" s="8" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="C238" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D238" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E238" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="C238" s="5" t="s">
+    </row>
+    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C239" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D238" s="1" t="n">
+      <c r="D239" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="B239" s="4" t="s">
+      <c r="E239" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="C239" s="5" t="s">
+    </row>
+    <row r="240" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C240" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D239" s="1" t="n">
+      <c r="D240" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="B240" s="4" t="s">
+      <c r="E240" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="C240" s="5" t="s">
+    </row>
+    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="D240" s="1" t="n">
+      <c r="B241" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="D241" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="B241" s="4" t="s">
+      <c r="E241" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="C241" s="5" t="s">
+    </row>
+    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="D241" s="1" t="n">
+      <c r="B242" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D242" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="B242" s="4" t="s">
+      <c r="E242" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="C242" s="5" t="s">
+    </row>
+    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C243" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D242" s="1" t="n">
+      <c r="D243" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="B243" s="4" t="s">
+      <c r="E243" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="C243" s="5" t="s">
+    </row>
+    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="D243" s="1" t="n">
+      <c r="B244" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D244" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="B244" s="4" t="s">
+      <c r="E244" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="D244" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="D245" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E245" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="C245" s="5" t="s">
+    </row>
+    <row r="246" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C246" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D245" s="1" t="n">
+      <c r="D246" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="B246" s="4" t="s">
+      <c r="E246" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="C246" s="5" t="s">
+    </row>
+    <row r="247" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D246" s="1" t="n">
+      <c r="B247" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="D247" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="B247" s="4" t="s">
+      <c r="E247" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="C248" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E248" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D248" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="C249" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D249" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E249" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="D249" s="1" t="n">
+    </row>
+    <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D250" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="B250" s="4" t="s">
+      <c r="E250" s="8" t="s">
         <v>855</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D250" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="C251" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D251" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E251" s="3" t="s">
         <v>858</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D251" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="C252" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D252" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E252" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="C252" s="5" t="s">
+    </row>
+    <row r="253" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C253" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D252" s="1" t="n">
+      <c r="D253" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="B253" s="4" t="s">
+      <c r="E253" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="D253" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="4" t="s">
-        <v>654</v>
+        <v>865</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C254" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="C254" s="5" t="s">
+      <c r="D254" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E254" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="D254" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C255" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="D255" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E255" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C255" s="5" t="s">
+    </row>
+    <row r="256" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="D255" s="1" t="n">
+      <c r="B256" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D256" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="B256" s="4" t="s">
+      <c r="E256" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D256" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="C257" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D257" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E257" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="D257" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="D258" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E258" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D258" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="C259" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D259" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E259" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D259" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="C260" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D260" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E260" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="C260" s="5" t="s">
+    </row>
+    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="C261" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D260" s="1" t="n">
+      <c r="D261" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D261" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E261" s="1" t="s">
+      <c r="E261" s="8" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="C262" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D262" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E262" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D262" s="1" t="n">
+    </row>
+    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D263" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="B263" s="4" t="s">
+      <c r="E263" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="C263" s="5" t="s">
+    </row>
+    <row r="264" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D263" s="1" t="n">
+      <c r="D264" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="B264" s="4" t="s">
+      <c r="E264" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C264" s="5" t="s">
+    </row>
+    <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D264" s="1" t="n">
+      <c r="D265" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>900</v>
-      </c>
+      <c r="E265" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D266" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D267" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D268" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D269" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D270" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D271" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D272" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D273" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D274" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D275" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D276" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D277" s="8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="G277" s="3"/>
+    </row>
+    <row r="278" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D278" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D279" s="8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D280" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D281" s="8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D282" s="8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E282" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G282" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
